--- a/chris/Data/Post1790/NH/T652_R6_New_Hampshire_CD.xlsx
+++ b/chris/Data/Post1790/NH/T652_R6_New_Hampshire_CD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghall\Documents\Fiscal_History\Loan_Office_Project\New Hampshire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisliao/Google Drive/Non-Academic Work/Research/Sargent/SPEOC-pt-1/chris/Data/Post1790/NH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F40427-9A59-4C62-8C45-C0B9A1616F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38D4978-16F0-B64E-A106-E0E4F545573D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25770" yWindow="1455" windowWidth="26610" windowHeight="14460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1281,6 +1281,12 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1300,12 +1306,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1664,30 +1664,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U919"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="71" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1"/>
     <col min="2" max="2" width="7.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.08203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="1" customWidth="1"/>
     <col min="9" max="10" width="11" style="25"/>
     <col min="11" max="11" width="13.83203125" style="25" customWidth="1"/>
-    <col min="12" max="12" width="7.08203125" style="25" customWidth="1"/>
+    <col min="12" max="12" width="7" style="25" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="25" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="42" customWidth="1"/>
     <col min="15" max="15" width="7.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="11" style="42"/>
-    <col min="17" max="17" width="7.08203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7" style="1" customWidth="1"/>
     <col min="18" max="18" width="11" style="42"/>
     <col min="19" max="19" width="7.5" style="1" customWidth="1"/>
     <col min="20" max="20" width="11" style="42"/>
@@ -1695,7 +1695,7 @@
     <col min="22" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -1719,7 +1719,7 @@
       <c r="R1" s="43"/>
       <c r="T1" s="43"/>
     </row>
-    <row r="2" spans="1:21" s="6" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1743,7 +1743,7 @@
       <c r="R2" s="43"/>
       <c r="T2" s="43"/>
     </row>
-    <row r="3" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1767,7 +1767,7 @@
       <c r="R3" s="43"/>
       <c r="T3" s="43"/>
     </row>
-    <row r="4" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -1791,7 +1791,7 @@
       <c r="R4" s="43"/>
       <c r="T4" s="43"/>
     </row>
-    <row r="5" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
@@ -1815,7 +1815,7 @@
       <c r="R5" s="43"/>
       <c r="T5" s="43"/>
     </row>
-    <row r="6" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1837,7 +1837,7 @@
       <c r="R6" s="43"/>
       <c r="T6" s="43"/>
     </row>
-    <row r="7" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="R7" s="43"/>
       <c r="T7" s="43"/>
     </row>
-    <row r="8" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -1885,7 +1885,7 @@
       <c r="R8" s="43"/>
       <c r="T8" s="43"/>
     </row>
-    <row r="9" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1907,50 +1907,50 @@
       <c r="R9" s="43"/>
       <c r="T9" s="43"/>
     </row>
-    <row r="10" spans="1:21" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="50" t="s">
+    <row r="10" spans="1:21" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="28"/>
       <c r="G10" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="53" t="s">
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="53"/>
-      <c r="P10" s="54" t="s">
+      <c r="O10" s="55"/>
+      <c r="P10" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="56" t="s">
+      <c r="Q10" s="56"/>
+      <c r="R10" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="S10" s="56"/>
-      <c r="T10" s="49" t="s">
+      <c r="S10" s="49"/>
+      <c r="T10" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="49"/>
-    </row>
-    <row r="11" spans="1:21" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51"/>
+      <c r="U10" s="51"/>
+    </row>
+    <row r="11" spans="1:21" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="35">
         <v>1</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>86.999999999989086</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="35">
         <v>1</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>17.000000000007276</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="35">
         <v>1</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>43.000000000000682</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="35">
         <v>1</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>54.000000000087311</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="35">
         <v>2</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>36.999999999989086</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="35">
         <v>2</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>37.000000000000455</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="35">
         <v>2</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>30.000000000001137</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="35">
         <v>2</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>21.999999999979991</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="35">
         <v>3</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>98.000000000001819</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="35">
         <v>3</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>65.000000000009095</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="35">
         <v>3</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>6.9999999999708962</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="35">
         <v>3</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>77.000000000001023</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="35">
         <v>3</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>73.000000000001819</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="35">
         <v>4</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>77.999999999883585</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="35">
         <v>4</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>64.000000000032742</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="35">
         <v>4</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>95.999999999997954</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="35">
         <v>5</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>10.999999999967258</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="35">
         <v>5</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>2.9999999999745341</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="35">
         <v>5</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>95.000000000004547</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="35">
         <v>6</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>41.000000000349246</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="35">
         <v>6</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>49.000000000000909</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="35">
         <v>6</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>40.999999999985448</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="35">
         <v>6</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>97.999999999956344</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="35">
         <v>6</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>52.000000000043656</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="35">
         <v>7</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>21.000000000003638</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="35">
         <v>7</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>65.999999999996817</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="35">
         <v>7</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>16.999999999995907</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="35">
         <v>7</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>85.999999999989996</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="35">
         <v>8</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>56.999999999970896</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="35">
         <v>8</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="35">
         <v>9</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>16.999999999995907</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="35">
         <v>9</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>54.000000000002046</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="35">
         <v>9</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>91.999999999998749</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="35">
         <v>10</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>28.999999999996362</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="35">
         <v>10</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>38.999999999998636</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="35">
         <v>10</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>88.999999999998636</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="35">
         <v>10</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>89.99999999996362</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="35">
         <v>10</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>40.000000000000568</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="35">
         <v>11</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>46.000000000003638</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="35">
         <v>11</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>62.999999999999545</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="35">
         <v>11</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>20.000000000004547</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="35">
         <v>11</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="35">
         <v>12</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="35">
         <v>12</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>5.999999999994543</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="35">
         <v>13</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>32.999999999992724</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="35">
         <v>13</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>28.999999999996362</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="35">
         <v>13</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>23.000000000001819</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="35">
         <v>13</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>38.000000000010914</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="35">
         <v>14</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>62.999999999999545</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="35">
         <v>14</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>31.999999999999318</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="35">
         <v>14</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>57.999999999998408</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="35">
         <v>14</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>37.000000000000455</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="35">
         <v>15</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>3.9999999999992042</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="35">
         <v>15</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>12.000000000000455</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="35">
         <v>15</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>50.999999999999091</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="35">
         <v>15</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>28.000000000020009</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="35">
         <v>16</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>37.999999999999545</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="35">
         <v>17</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>2.9999999999972715</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="35">
         <v>17</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>42.000000000001592</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="35">
         <v>17</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>0.99999999999909051</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="35">
         <v>18</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>66.999999999995907</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="35">
         <v>18</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>59.999999999990905</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="35">
         <v>18</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>40.000000000009095</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="35">
         <v>18</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>12.999999999999545</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="35">
         <v>18</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>62.000000000000455</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="35">
         <v>19</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>95.000000000000284</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="35">
         <v>20</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>61.999999999989086</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="35">
         <v>20</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>67.000000000007276</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="35">
         <v>20</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>42.000000000007276</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="35">
         <v>20</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>2.9999999999972715</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="35">
         <v>20</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>81.999999999999318</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="35">
         <v>21</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>96.000000000000796</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" s="35">
         <v>21</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>38.000000000010914</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="35">
         <v>21</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>7.0000000000050022</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="35">
         <v>21</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>95.999999999912689</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="35">
         <v>22</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="35">
         <v>22</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>44.999999999998863</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="35">
         <v>22</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="35">
         <v>22</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>73.999999999978172</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="35">
         <v>23</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>54.999999999995453</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" s="35">
         <v>23</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>25.999999999999091</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="35">
         <v>23</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="35">
         <v>24</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>53.000000000000114</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="35">
         <v>24</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="35">
         <v>24</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>77.999999999997272</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" s="35">
         <v>24</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>11.000000000001364</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" s="35">
         <v>26</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>94.999999999998863</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="35">
         <v>28</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>4.9999999999954525</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" s="35">
         <v>28</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>63.999999999998636</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" s="35">
         <v>28</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>67.000000000007276</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" s="35">
         <v>29</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>51.999999999998181</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" s="35">
         <v>31</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>51.000000000000512</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" s="35">
         <v>32</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>38.999999999998636</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" s="35">
         <v>33</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>16.999999999998749</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" s="35">
         <v>33</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>29.999999999995453</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" s="35">
         <v>33</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" s="35">
         <v>34</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>80.00000000001819</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" s="35">
         <v>34</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>36.000000000012733</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" s="35">
         <v>36</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>57.999999999999829</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" s="35">
         <v>37</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>23.000000000001819</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" s="35">
         <v>37</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>36.000000000001364</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" s="35">
         <v>37</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>48.000000000001819</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" s="35">
         <v>38</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>85.999999999999943</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" s="35">
         <v>38</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>61.999999999989086</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" s="35">
         <v>39</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>29.000000000000625</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" s="35">
         <v>39</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>80.999999999949068</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" s="35">
         <v>39</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>73.000000000001819</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" s="35">
         <v>40</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>79.999999999995453</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" s="35">
         <v>40</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>37.000000000000455</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" s="35">
         <v>40</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>94.99999999998181</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" s="35">
         <v>41</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" s="35">
         <v>42</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>87.999999999999545</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" s="35">
         <v>42</v>
       </c>
@@ -9262,7 +9262,7 @@
         <v>60.999999999989996</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" s="35">
         <v>42</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>25.999999999999091</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" s="35">
         <v>42</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>29.999999999999716</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" s="35">
         <v>43</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" s="35">
         <v>43</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>21.000000000003638</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" s="35">
         <v>43</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130" s="35">
         <v>45</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>97.000000000025466</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" s="35">
         <v>45</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>78.999999999996362</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" s="35">
         <v>45</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" s="35">
         <v>45</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>26.000000000021828</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134" s="35">
         <v>45</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>76.999999999998181</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135" s="35">
         <v>46</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>33.999999999991815</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" s="35">
         <v>46</v>
       </c>
@@ -10030,7 +10030,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" s="35">
         <v>46</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>71.999999999999886</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" s="35">
         <v>46</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>40.000000000000568</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" s="35">
         <v>46</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>19.999999999998863</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" s="35">
         <v>46</v>
       </c>
@@ -10290,7 +10290,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" s="35">
         <v>47</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>11.000000000012733</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" s="35">
         <v>47</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>79.999999999999716</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" s="35">
         <v>47</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>90.000000000009095</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" s="35">
         <v>47</v>
       </c>
@@ -10548,7 +10548,7 @@
         <v>21.000000000000796</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145" s="35">
         <v>47</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>71.999999999999886</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146" s="35">
         <v>48</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>12.000000000000455</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147" s="35">
         <v>48</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>63.999999999998636</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148" s="35">
         <v>48</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>27.999999999997272</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149" s="35">
         <v>48</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>15.999999999999659</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150" s="35">
         <v>49</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>27.999999999997272</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151" s="35">
         <v>50</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>49.000000000000909</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152" s="35">
         <v>51</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>50.999999999999091</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153" s="35">
         <v>51</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>74.000000000000909</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154" s="35">
         <v>51</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>16.000000000008185</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155" s="35">
         <v>52</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>71.000000000003638</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156" s="35">
         <v>53</v>
       </c>
@@ -11304,7 +11304,7 @@
         <v>67.000000000000171</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157" s="35">
         <v>53</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>10.000000000002274</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158" s="35">
         <v>54</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>30.000000000001137</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159" s="35">
         <v>54</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>18.000000000000682</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" s="35">
         <v>55</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>58.000000000001251</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" s="35">
         <v>56</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>11.000000000001364</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" s="35">
         <v>56</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>60.000000000002274</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" s="35">
         <v>56</v>
       </c>
@@ -11759,7 +11759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" s="35">
         <v>56</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>76.999999999998181</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" s="35">
         <v>57</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>19.000000000005457</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166" s="35">
         <v>57</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>72.000000000002728</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167" s="35">
         <v>57</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>62.000000000000455</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168" s="35">
         <v>57</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>68.999999999999773</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169" s="35">
         <v>58</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>12.999999999999545</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170" s="35">
         <v>58</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>76.999999999999957</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171" s="35">
         <v>58</v>
       </c>
@@ -12277,7 +12277,7 @@
         <v>18.999999999999773</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" s="35">
         <v>58</v>
       </c>
@@ -12342,7 +12342,7 @@
         <v>96.000000000000796</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173" s="35">
         <v>58</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>99.000000000000909</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174" s="35">
         <v>59</v>
       </c>
@@ -12472,7 +12472,7 @@
         <v>35.000000000002274</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175" s="35">
         <v>59</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>72.000000000002728</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" s="35">
         <v>59</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>79.999999999999716</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" s="35">
         <v>60</v>
       </c>
@@ -12663,7 +12663,7 @@
         <v>89.999999999997726</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" s="35">
         <v>60</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>70.000000000004547</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" s="35">
         <v>60</v>
       </c>
@@ -12793,7 +12793,7 @@
         <v>35.000000000002274</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180" s="35">
         <v>61</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>4.9999999999954525</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181" s="35">
         <v>61</v>
       </c>
@@ -12925,7 +12925,7 @@
         <v>72.000000000002728</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182" s="35">
         <v>61</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>51.999999999998181</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" s="35">
         <v>61</v>
       </c>
@@ -13055,7 +13055,7 @@
         <v>45.000000000000284</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" s="35">
         <v>61</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>86.999999999989086</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185" s="35">
         <v>62</v>
       </c>
@@ -13183,7 +13183,7 @@
         <v>98.000000000001819</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186" s="35">
         <v>62</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187" s="35">
         <v>62</v>
       </c>
@@ -13313,7 +13313,7 @@
         <v>3.999999999996362</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188" s="35">
         <v>69</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189" s="35">
         <v>131</v>
       </c>
@@ -13441,7 +13441,7 @@
         <v>89.000000000032742</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190" s="35">
         <v>131</v>
       </c>
@@ -13506,7 +13506,7 @@
         <v>28.000000000000114</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191" s="35">
         <v>132</v>
       </c>
@@ -13571,7 +13571,7 @@
         <v>68.999999999999773</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A192" s="35">
         <v>133</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>80.999999999949068</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A193" s="35">
         <v>137</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>88.999999999998636</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A194" s="35">
         <v>138</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>81.999999999999318</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A195" s="35">
         <v>143</v>
       </c>
@@ -13829,7 +13829,7 @@
         <v>13.999999999998636</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A196" s="35">
         <v>145</v>
       </c>
@@ -13894,7 +13894,7 @@
         <v>6.0000000000002274</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A197" s="35">
         <v>145</v>
       </c>
@@ -13959,7 +13959,7 @@
         <v>81.000000000000227</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A198" s="35">
         <v>148</v>
       </c>
@@ -14024,7 +14024,7 @@
         <v>44.999999999998863</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A199" s="35">
         <v>149</v>
       </c>
@@ -14089,7 +14089,7 @@
         <v>80.000000000001137</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A200" s="35">
         <v>150</v>
       </c>
@@ -14154,7 +14154,7 @@
         <v>29.999999999995453</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A201" s="35">
         <v>151</v>
       </c>
@@ -14219,7 +14219,7 @@
         <v>79.000000000002046</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A202" s="35">
         <v>155</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>41.999999999995907</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A203" s="35">
         <v>156</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>69.999999999998863</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A204" s="35">
         <v>156</v>
       </c>
@@ -14406,15 +14406,15 @@
         <v>0</v>
       </c>
       <c r="T204" s="42">
-        <f t="shared" ref="T204:T267" si="6">FLOOR(N204+O204/100+P204+Q204/100+R204+S204/100,1)</f>
+        <f t="shared" ref="T204:T230" si="6">FLOOR(N204+O204/100+P204+Q204/100+R204+S204/100,1)</f>
         <v>786</v>
       </c>
       <c r="U204" s="1">
-        <f t="shared" ref="U204:U267" si="7">100*(N204+P204+R204+((O204+Q204+S204)/100)-T204)</f>
+        <f t="shared" ref="U204:U230" si="7">100*(N204+P204+R204+((O204+Q204+S204)/100)-T204)</f>
         <v>66.999999999995907</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A205" s="35">
         <v>166</v>
       </c>
@@ -14479,7 +14479,7 @@
         <v>69.000000000005457</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A206" s="35">
         <v>166</v>
       </c>
@@ -14544,7 +14544,7 @@
         <v>44.000000000005457</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A207" s="35">
         <v>166</v>
       </c>
@@ -14607,7 +14607,7 @@
         <v>6.0000000000400178</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A208" s="35">
         <v>176</v>
       </c>
@@ -14672,7 +14672,7 @@
         <v>79.000000000002046</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A209" s="35">
         <v>177</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>1.0000000000218279</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A210" s="35">
         <v>177</v>
       </c>
@@ -14802,7 +14802,7 @@
         <v>60.000000000002274</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A211" s="35">
         <v>178</v>
       </c>
@@ -14867,7 +14867,7 @@
         <v>60.000000000002274</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A212" s="35">
         <v>179</v>
       </c>
@@ -14932,7 +14932,7 @@
         <v>38.999999999998636</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A213" s="35">
         <v>189</v>
       </c>
@@ -14997,7 +14997,7 @@
         <v>7.9999999999984084</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A214" s="35">
         <v>193</v>
       </c>
@@ -15062,7 +15062,7 @@
         <v>25.999999999999091</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A215" s="35">
         <v>193</v>
       </c>
@@ -15127,7 +15127,7 @@
         <v>62.000000000000455</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A216" s="35">
         <v>194</v>
       </c>
@@ -15192,7 +15192,7 @@
         <v>73.000000000001819</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A217" s="35">
         <v>195</v>
       </c>
@@ -15257,7 +15257,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A218" s="35">
         <v>197</v>
       </c>
@@ -15322,7 +15322,7 @@
         <v>35.999999999999943</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A219" s="35">
         <v>197</v>
       </c>
@@ -15387,7 +15387,7 @@
         <v>43.999999999999773</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A220" s="35">
         <v>198</v>
       </c>
@@ -15452,7 +15452,7 @@
         <v>6.9999999999993179</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A221" s="35">
         <v>199</v>
       </c>
@@ -15517,7 +15517,7 @@
         <v>46.999999999999886</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A222" s="35">
         <v>199</v>
       </c>
@@ -15582,7 +15582,7 @@
         <v>18.999999999999773</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A223" s="35">
         <v>199</v>
       </c>
@@ -15649,7 +15649,7 @@
         <v>80.000000000001137</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A224" s="35">
         <v>199</v>
       </c>
@@ -15712,7 +15712,7 @@
         <v>50.999999999999091</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A225" s="35">
         <v>200</v>
       </c>
@@ -15777,7 +15777,7 @@
         <v>7.0000000000050022</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A226" s="35">
         <v>200</v>
       </c>
@@ -15842,7 +15842,7 @@
         <v>23.000000000001819</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A227" s="35">
         <v>200</v>
       </c>
@@ -15907,7 +15907,7 @@
         <v>10.000000000000142</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A228" s="35">
         <v>200</v>
       </c>
@@ -15972,7 +15972,7 @@
         <v>89.999999999999858</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A229" s="35">
         <v>201</v>
       </c>
@@ -16037,7 +16037,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A230" s="35">
         <v>201</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>87.000000000000455</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A231" s="35"/>
       <c r="B231" s="35"/>
       <c r="C231" s="24"/>
@@ -16119,7 +16119,7 @@
       <c r="N231" s="40"/>
       <c r="O231" s="20"/>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A232" s="35"/>
       <c r="B232" s="35"/>
       <c r="C232" s="24"/>
@@ -16133,28 +16133,28 @@
       <c r="K232" s="10"/>
       <c r="L232" s="10"/>
       <c r="M232" s="10"/>
-      <c r="N232" s="55">
+      <c r="N232" s="48">
         <f>SUM(N12:N230)+0.01*SUM(O12:O230)</f>
         <v>205162.12</v>
       </c>
-      <c r="O232" s="55"/>
-      <c r="P232" s="55">
+      <c r="O232" s="48"/>
+      <c r="P232" s="48">
         <f>SUM(P12:P230)+0.01*SUM(Q12:Q230)</f>
         <v>102620.77</v>
       </c>
-      <c r="Q232" s="55"/>
-      <c r="R232" s="55">
+      <c r="Q232" s="48"/>
+      <c r="R232" s="48">
         <f>SUM(R12:R230)+0.01*SUM(S12:S230)</f>
         <v>154903.37</v>
       </c>
-      <c r="S232" s="55"/>
-      <c r="T232" s="55">
+      <c r="S232" s="48"/>
+      <c r="T232" s="48">
         <f>SUM(T12:T230)+0.01*SUM(U12:U230)</f>
         <v>462686.26</v>
       </c>
-      <c r="U232" s="55"/>
-    </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="U232" s="48"/>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A233" s="35"/>
       <c r="B233" s="35"/>
       <c r="C233" s="24"/>
@@ -16171,7 +16171,7 @@
       <c r="N233" s="40"/>
       <c r="O233" s="20"/>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A234" s="35"/>
       <c r="B234" s="35"/>
       <c r="C234" s="24"/>
@@ -16188,7 +16188,7 @@
       <c r="N234" s="40"/>
       <c r="O234" s="20"/>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A235" s="35"/>
       <c r="B235" s="35"/>
       <c r="C235" s="24"/>
@@ -16205,7 +16205,7 @@
       <c r="N235" s="40"/>
       <c r="O235" s="20"/>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A236" s="35"/>
       <c r="B236" s="35"/>
       <c r="C236" s="24"/>
@@ -16222,7 +16222,7 @@
       <c r="N236" s="41"/>
       <c r="O236" s="21"/>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A237" s="35"/>
       <c r="B237" s="35"/>
       <c r="C237" s="24"/>
@@ -16239,7 +16239,7 @@
       <c r="N237" s="40"/>
       <c r="O237" s="20"/>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A238" s="35"/>
       <c r="B238" s="35"/>
       <c r="C238" s="24"/>
@@ -16256,7 +16256,7 @@
       <c r="N238" s="40"/>
       <c r="O238" s="20"/>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A239" s="35"/>
       <c r="B239" s="35"/>
       <c r="C239" s="24"/>
@@ -16273,7 +16273,7 @@
       <c r="N239" s="40"/>
       <c r="O239" s="20"/>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A240" s="35"/>
       <c r="B240" s="35"/>
       <c r="C240" s="24"/>
@@ -16290,7 +16290,7 @@
       <c r="N240" s="40"/>
       <c r="O240" s="20"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="35"/>
       <c r="B241" s="35"/>
       <c r="C241" s="24"/>
@@ -16307,7 +16307,7 @@
       <c r="N241" s="41"/>
       <c r="O241" s="21"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="35"/>
       <c r="B242" s="35"/>
       <c r="C242" s="24"/>
@@ -16324,7 +16324,7 @@
       <c r="N242" s="40"/>
       <c r="O242" s="20"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="35"/>
       <c r="B243" s="35"/>
       <c r="C243" s="24"/>
@@ -16341,7 +16341,7 @@
       <c r="N243" s="40"/>
       <c r="O243" s="20"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="35"/>
       <c r="B244" s="35"/>
       <c r="C244" s="24"/>
@@ -16358,7 +16358,7 @@
       <c r="N244" s="40"/>
       <c r="O244" s="20"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="35"/>
       <c r="B245" s="35"/>
       <c r="C245" s="24"/>
@@ -16375,7 +16375,7 @@
       <c r="N245" s="41"/>
       <c r="O245" s="21"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="35"/>
       <c r="B246" s="35"/>
       <c r="C246" s="24"/>
@@ -16392,7 +16392,7 @@
       <c r="N246" s="40"/>
       <c r="O246" s="20"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="35"/>
       <c r="B247" s="35"/>
       <c r="C247" s="24"/>
@@ -16409,7 +16409,7 @@
       <c r="N247" s="40"/>
       <c r="O247" s="20"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="35"/>
       <c r="B248" s="35"/>
       <c r="C248" s="24"/>
@@ -16426,7 +16426,7 @@
       <c r="N248" s="40"/>
       <c r="O248" s="20"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="35"/>
       <c r="B249" s="35"/>
       <c r="C249" s="24"/>
@@ -16443,7 +16443,7 @@
       <c r="N249" s="41"/>
       <c r="O249" s="21"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="35"/>
       <c r="B250" s="35"/>
       <c r="C250" s="24"/>
@@ -16460,7 +16460,7 @@
       <c r="N250" s="40"/>
       <c r="O250" s="20"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="35"/>
       <c r="B251" s="35"/>
       <c r="C251" s="24"/>
@@ -16477,7 +16477,7 @@
       <c r="N251" s="40"/>
       <c r="O251" s="20"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="35"/>
       <c r="B252" s="35"/>
       <c r="C252" s="24"/>
@@ -16494,7 +16494,7 @@
       <c r="N252" s="40"/>
       <c r="O252" s="20"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="35"/>
       <c r="B253" s="35"/>
       <c r="C253" s="24"/>
@@ -16511,7 +16511,7 @@
       <c r="N253" s="41"/>
       <c r="O253" s="21"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="35"/>
       <c r="B254" s="35"/>
       <c r="C254" s="24"/>
@@ -16528,7 +16528,7 @@
       <c r="N254" s="41"/>
       <c r="O254" s="21"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="35"/>
       <c r="B255" s="35"/>
       <c r="C255" s="24"/>
@@ -16545,7 +16545,7 @@
       <c r="N255" s="40"/>
       <c r="O255" s="20"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="35"/>
       <c r="B256" s="35"/>
       <c r="C256" s="24"/>
@@ -16562,7 +16562,7 @@
       <c r="N256" s="40"/>
       <c r="O256" s="20"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="35"/>
       <c r="B257" s="35"/>
       <c r="C257" s="24"/>
@@ -16579,7 +16579,7 @@
       <c r="N257" s="40"/>
       <c r="O257" s="20"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="35"/>
       <c r="B258" s="35"/>
       <c r="C258" s="24"/>
@@ -16596,7 +16596,7 @@
       <c r="N258" s="40"/>
       <c r="O258" s="20"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="35"/>
       <c r="B259" s="35"/>
       <c r="C259" s="24"/>
@@ -16613,7 +16613,7 @@
       <c r="N259" s="40"/>
       <c r="O259" s="20"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="35"/>
       <c r="B260" s="35"/>
       <c r="C260" s="24"/>
@@ -16630,7 +16630,7 @@
       <c r="N260" s="40"/>
       <c r="O260" s="20"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="35"/>
       <c r="B261" s="35"/>
       <c r="C261" s="24"/>
@@ -16647,7 +16647,7 @@
       <c r="N261" s="40"/>
       <c r="O261" s="20"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="35"/>
       <c r="B262" s="35"/>
       <c r="C262" s="24"/>
@@ -16664,7 +16664,7 @@
       <c r="N262" s="40"/>
       <c r="O262" s="20"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="35"/>
       <c r="B263" s="35"/>
       <c r="C263" s="24"/>
@@ -16681,7 +16681,7 @@
       <c r="N263" s="40"/>
       <c r="O263" s="20"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="35"/>
       <c r="B264" s="35"/>
       <c r="C264" s="24"/>
@@ -16698,7 +16698,7 @@
       <c r="N264" s="40"/>
       <c r="O264" s="20"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="35"/>
       <c r="B265" s="35"/>
       <c r="C265" s="24"/>
@@ -16715,7 +16715,7 @@
       <c r="N265" s="40"/>
       <c r="O265" s="20"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="35"/>
       <c r="B266" s="35"/>
       <c r="C266" s="24"/>
@@ -16732,7 +16732,7 @@
       <c r="N266" s="41"/>
       <c r="O266" s="21"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="35"/>
       <c r="B267" s="35"/>
       <c r="C267" s="24"/>
@@ -16749,7 +16749,7 @@
       <c r="N267" s="40"/>
       <c r="O267" s="20"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="35"/>
       <c r="B268" s="35"/>
       <c r="C268" s="24"/>
@@ -16766,7 +16766,7 @@
       <c r="N268" s="40"/>
       <c r="O268" s="20"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="35"/>
       <c r="B269" s="35"/>
       <c r="C269" s="24"/>
@@ -16783,7 +16783,7 @@
       <c r="N269" s="40"/>
       <c r="O269" s="20"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="35"/>
       <c r="B270" s="35"/>
       <c r="C270" s="24"/>
@@ -16800,7 +16800,7 @@
       <c r="N270" s="40"/>
       <c r="O270" s="20"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="35"/>
       <c r="B271" s="35"/>
       <c r="C271" s="24"/>
@@ -16817,7 +16817,7 @@
       <c r="N271" s="40"/>
       <c r="O271" s="20"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="35"/>
       <c r="B272" s="35"/>
       <c r="C272" s="24"/>
@@ -16834,7 +16834,7 @@
       <c r="N272" s="40"/>
       <c r="O272" s="20"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="35"/>
       <c r="B273" s="35"/>
       <c r="C273" s="24"/>
@@ -16851,7 +16851,7 @@
       <c r="N273" s="41"/>
       <c r="O273" s="21"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="35"/>
       <c r="B274" s="35"/>
       <c r="C274" s="24"/>
@@ -16868,7 +16868,7 @@
       <c r="N274" s="40"/>
       <c r="O274" s="20"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="35"/>
       <c r="B275" s="35"/>
       <c r="C275" s="24"/>
@@ -16885,7 +16885,7 @@
       <c r="N275" s="40"/>
       <c r="O275" s="20"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="35"/>
       <c r="B276" s="35"/>
       <c r="C276" s="24"/>
@@ -16902,7 +16902,7 @@
       <c r="N276" s="40"/>
       <c r="O276" s="20"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="35"/>
       <c r="B277" s="35"/>
       <c r="C277" s="24"/>
@@ -16919,7 +16919,7 @@
       <c r="N277" s="40"/>
       <c r="O277" s="20"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="35"/>
       <c r="B278" s="35"/>
       <c r="C278" s="24"/>
@@ -16936,7 +16936,7 @@
       <c r="N278" s="40"/>
       <c r="O278" s="20"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="35"/>
       <c r="B279" s="35"/>
       <c r="C279" s="24"/>
@@ -16953,7 +16953,7 @@
       <c r="N279" s="41"/>
       <c r="O279" s="21"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="35"/>
       <c r="B280" s="35"/>
       <c r="C280" s="24"/>
@@ -16970,7 +16970,7 @@
       <c r="N280" s="40"/>
       <c r="O280" s="20"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="35"/>
       <c r="B281" s="35"/>
       <c r="C281" s="24"/>
@@ -16987,7 +16987,7 @@
       <c r="N281" s="40"/>
       <c r="O281" s="20"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="35"/>
       <c r="B282" s="35"/>
       <c r="C282" s="24"/>
@@ -17004,7 +17004,7 @@
       <c r="N282" s="40"/>
       <c r="O282" s="20"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="35"/>
       <c r="B283" s="35"/>
       <c r="C283" s="24"/>
@@ -17021,7 +17021,7 @@
       <c r="N283" s="40"/>
       <c r="O283" s="20"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="35"/>
       <c r="B284" s="35"/>
       <c r="C284" s="24"/>
@@ -17038,7 +17038,7 @@
       <c r="N284" s="40"/>
       <c r="O284" s="20"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="35"/>
       <c r="B285" s="35"/>
       <c r="C285" s="24"/>
@@ -17055,7 +17055,7 @@
       <c r="N285" s="40"/>
       <c r="O285" s="20"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="35"/>
       <c r="B286" s="35"/>
       <c r="C286" s="24"/>
@@ -17072,7 +17072,7 @@
       <c r="N286" s="40"/>
       <c r="O286" s="20"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="35"/>
       <c r="B287" s="35"/>
       <c r="C287" s="24"/>
@@ -17089,7 +17089,7 @@
       <c r="N287" s="40"/>
       <c r="O287" s="20"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="35"/>
       <c r="B288" s="35"/>
       <c r="C288" s="24"/>
@@ -17106,7 +17106,7 @@
       <c r="N288" s="41"/>
       <c r="O288" s="21"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="35"/>
       <c r="B289" s="35"/>
       <c r="C289" s="24"/>
@@ -17123,7 +17123,7 @@
       <c r="N289" s="40"/>
       <c r="O289" s="20"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="35"/>
       <c r="B290" s="35"/>
       <c r="C290" s="24"/>
@@ -17140,7 +17140,7 @@
       <c r="N290" s="40"/>
       <c r="O290" s="20"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="35"/>
       <c r="B291" s="35"/>
       <c r="C291" s="24"/>
@@ -17157,7 +17157,7 @@
       <c r="N291" s="40"/>
       <c r="O291" s="20"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="35"/>
       <c r="B292" s="35"/>
       <c r="C292" s="24"/>
@@ -17174,7 +17174,7 @@
       <c r="N292" s="40"/>
       <c r="O292" s="20"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="35"/>
       <c r="B293" s="35"/>
       <c r="C293" s="24"/>
@@ -17191,7 +17191,7 @@
       <c r="N293" s="41"/>
       <c r="O293" s="21"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="35"/>
       <c r="B294" s="35"/>
       <c r="C294" s="24"/>
@@ -17208,7 +17208,7 @@
       <c r="N294" s="40"/>
       <c r="O294" s="20"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="35"/>
       <c r="B295" s="35"/>
       <c r="C295" s="24"/>
@@ -17225,7 +17225,7 @@
       <c r="N295" s="40"/>
       <c r="O295" s="20"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="35"/>
       <c r="B296" s="35"/>
       <c r="C296" s="24"/>
@@ -17242,7 +17242,7 @@
       <c r="N296" s="41"/>
       <c r="O296" s="21"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="35"/>
       <c r="B297" s="35"/>
       <c r="C297" s="24"/>
@@ -17259,7 +17259,7 @@
       <c r="N297" s="40"/>
       <c r="O297" s="20"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="35"/>
       <c r="B298" s="35"/>
       <c r="C298" s="24"/>
@@ -17276,7 +17276,7 @@
       <c r="N298" s="40"/>
       <c r="O298" s="20"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="35"/>
       <c r="B299" s="35"/>
       <c r="C299" s="24"/>
@@ -17293,7 +17293,7 @@
       <c r="N299" s="41"/>
       <c r="O299" s="21"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="35"/>
       <c r="B300" s="35"/>
       <c r="C300" s="24"/>
@@ -17310,7 +17310,7 @@
       <c r="N300" s="41"/>
       <c r="O300" s="21"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="35"/>
       <c r="B301" s="35"/>
       <c r="C301" s="24"/>
@@ -17327,7 +17327,7 @@
       <c r="N301" s="40"/>
       <c r="O301" s="20"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="35"/>
       <c r="B302" s="35"/>
       <c r="C302" s="24"/>
@@ -17344,7 +17344,7 @@
       <c r="N302" s="41"/>
       <c r="O302" s="21"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="35"/>
       <c r="B303" s="35"/>
       <c r="C303" s="24"/>
@@ -17361,7 +17361,7 @@
       <c r="N303" s="40"/>
       <c r="O303" s="20"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="35"/>
       <c r="B304" s="35"/>
       <c r="C304" s="24"/>
@@ -17378,7 +17378,7 @@
       <c r="N304" s="40"/>
       <c r="O304" s="20"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="35"/>
       <c r="B305" s="35"/>
       <c r="C305" s="24"/>
@@ -17395,7 +17395,7 @@
       <c r="N305" s="40"/>
       <c r="O305" s="20"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="35"/>
       <c r="B306" s="35"/>
       <c r="C306" s="24"/>
@@ -17412,7 +17412,7 @@
       <c r="N306" s="40"/>
       <c r="O306" s="20"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="35"/>
       <c r="B307" s="35"/>
       <c r="C307" s="24"/>
@@ -17429,7 +17429,7 @@
       <c r="N307" s="41"/>
       <c r="O307" s="21"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="35"/>
       <c r="B308" s="35"/>
       <c r="C308" s="24"/>
@@ -17446,7 +17446,7 @@
       <c r="N308" s="40"/>
       <c r="O308" s="20"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="35"/>
       <c r="B309" s="35"/>
       <c r="C309" s="24"/>
@@ -17463,7 +17463,7 @@
       <c r="N309" s="40"/>
       <c r="O309" s="20"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="35"/>
       <c r="B310" s="35"/>
       <c r="C310" s="24"/>
@@ -17480,7 +17480,7 @@
       <c r="N310" s="40"/>
       <c r="O310" s="20"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="35"/>
       <c r="B311" s="35"/>
       <c r="C311" s="24"/>
@@ -17497,7 +17497,7 @@
       <c r="N311" s="40"/>
       <c r="O311" s="20"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="35"/>
       <c r="B312" s="35"/>
       <c r="C312" s="24"/>
@@ -17514,7 +17514,7 @@
       <c r="N312" s="41"/>
       <c r="O312" s="21"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="35"/>
       <c r="B313" s="35"/>
       <c r="C313" s="24"/>
@@ -17531,7 +17531,7 @@
       <c r="N313" s="40"/>
       <c r="O313" s="20"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="35"/>
       <c r="B314" s="35"/>
       <c r="C314" s="24"/>
@@ -17548,7 +17548,7 @@
       <c r="N314" s="41"/>
       <c r="O314" s="21"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="35"/>
       <c r="B315" s="35"/>
       <c r="C315" s="24"/>
@@ -17565,7 +17565,7 @@
       <c r="N315" s="40"/>
       <c r="O315" s="20"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="35"/>
       <c r="B316" s="35"/>
       <c r="C316" s="24"/>
@@ -17582,7 +17582,7 @@
       <c r="N316" s="40"/>
       <c r="O316" s="20"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="35"/>
       <c r="B317" s="35"/>
       <c r="C317" s="24"/>
@@ -17599,7 +17599,7 @@
       <c r="N317" s="40"/>
       <c r="O317" s="20"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="35"/>
       <c r="B318" s="35"/>
       <c r="C318" s="24"/>
@@ -17616,7 +17616,7 @@
       <c r="N318" s="41"/>
       <c r="O318" s="21"/>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="35"/>
       <c r="B319" s="35"/>
       <c r="C319" s="24"/>
@@ -17633,7 +17633,7 @@
       <c r="N319" s="40"/>
       <c r="O319" s="20"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="35"/>
       <c r="B320" s="35"/>
       <c r="C320" s="24"/>
@@ -17650,7 +17650,7 @@
       <c r="N320" s="40"/>
       <c r="O320" s="20"/>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="35"/>
       <c r="B321" s="35"/>
       <c r="C321" s="24"/>
@@ -17667,7 +17667,7 @@
       <c r="N321" s="40"/>
       <c r="O321" s="20"/>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="35"/>
       <c r="B322" s="35"/>
       <c r="C322" s="24"/>
@@ -17684,7 +17684,7 @@
       <c r="N322" s="40"/>
       <c r="O322" s="20"/>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="35"/>
       <c r="B323" s="35"/>
       <c r="C323" s="24"/>
@@ -17701,7 +17701,7 @@
       <c r="N323" s="40"/>
       <c r="O323" s="20"/>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="35"/>
       <c r="B324" s="35"/>
       <c r="C324" s="24"/>
@@ -17718,7 +17718,7 @@
       <c r="N324" s="41"/>
       <c r="O324" s="21"/>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="35"/>
       <c r="B325" s="35"/>
       <c r="C325" s="24"/>
@@ -17735,7 +17735,7 @@
       <c r="N325" s="40"/>
       <c r="O325" s="20"/>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="35"/>
       <c r="B326" s="35"/>
       <c r="C326" s="24"/>
@@ -17752,7 +17752,7 @@
       <c r="N326" s="40"/>
       <c r="O326" s="20"/>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="35"/>
       <c r="B327" s="35"/>
       <c r="C327" s="24"/>
@@ -17769,7 +17769,7 @@
       <c r="N327" s="41"/>
       <c r="O327" s="21"/>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="35"/>
       <c r="B328" s="35"/>
       <c r="C328" s="24"/>
@@ -17786,7 +17786,7 @@
       <c r="N328" s="41"/>
       <c r="O328" s="21"/>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="35"/>
       <c r="B329" s="35"/>
       <c r="C329" s="24"/>
@@ -17803,7 +17803,7 @@
       <c r="N329" s="41"/>
       <c r="O329" s="21"/>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="35"/>
       <c r="B330" s="35"/>
       <c r="C330" s="24"/>
@@ -17820,7 +17820,7 @@
       <c r="N330" s="41"/>
       <c r="O330" s="21"/>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="35"/>
       <c r="B331" s="35"/>
       <c r="C331" s="24"/>
@@ -17837,7 +17837,7 @@
       <c r="N331" s="41"/>
       <c r="O331" s="21"/>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="35"/>
       <c r="B332" s="35"/>
       <c r="C332" s="24"/>
@@ -17854,7 +17854,7 @@
       <c r="N332" s="41"/>
       <c r="O332" s="21"/>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="35"/>
       <c r="B333" s="35"/>
       <c r="C333" s="24"/>
@@ -17871,7 +17871,7 @@
       <c r="N333" s="41"/>
       <c r="O333" s="21"/>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="35"/>
       <c r="B334" s="35"/>
       <c r="C334" s="24"/>
@@ -17888,7 +17888,7 @@
       <c r="N334" s="40"/>
       <c r="O334" s="20"/>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="35"/>
       <c r="B335" s="35"/>
       <c r="C335" s="24"/>
@@ -17905,7 +17905,7 @@
       <c r="N335" s="40"/>
       <c r="O335" s="20"/>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="35"/>
       <c r="B336" s="35"/>
       <c r="C336" s="24"/>
@@ -17922,7 +17922,7 @@
       <c r="N336" s="40"/>
       <c r="O336" s="20"/>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="35"/>
       <c r="B337" s="35"/>
       <c r="C337" s="24"/>
@@ -17939,7 +17939,7 @@
       <c r="N337" s="40"/>
       <c r="O337" s="20"/>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="35"/>
       <c r="B338" s="35"/>
       <c r="C338" s="24"/>
@@ -17956,7 +17956,7 @@
       <c r="N338" s="40"/>
       <c r="O338" s="20"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="35"/>
       <c r="B339" s="35"/>
       <c r="C339" s="24"/>
@@ -17973,7 +17973,7 @@
       <c r="N339" s="40"/>
       <c r="O339" s="20"/>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="35"/>
       <c r="B340" s="35"/>
       <c r="C340" s="24"/>
@@ -17990,7 +17990,7 @@
       <c r="N340" s="40"/>
       <c r="O340" s="20"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="35"/>
       <c r="B341" s="35"/>
       <c r="C341" s="24"/>
@@ -18007,7 +18007,7 @@
       <c r="N341" s="40"/>
       <c r="O341" s="20"/>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="35"/>
       <c r="B342" s="35"/>
       <c r="C342" s="24"/>
@@ -18024,7 +18024,7 @@
       <c r="N342" s="40"/>
       <c r="O342" s="20"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="35"/>
       <c r="B343" s="35"/>
       <c r="C343" s="24"/>
@@ -18041,7 +18041,7 @@
       <c r="N343" s="40"/>
       <c r="O343" s="20"/>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="35"/>
       <c r="B344" s="35"/>
       <c r="C344" s="24"/>
@@ -18058,7 +18058,7 @@
       <c r="N344" s="40"/>
       <c r="O344" s="20"/>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="35"/>
       <c r="B345" s="35"/>
       <c r="C345" s="24"/>
@@ -18075,7 +18075,7 @@
       <c r="N345" s="41"/>
       <c r="O345" s="21"/>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="35"/>
       <c r="B346" s="35"/>
       <c r="C346" s="24"/>
@@ -18092,7 +18092,7 @@
       <c r="N346" s="40"/>
       <c r="O346" s="20"/>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="35"/>
       <c r="B347" s="35"/>
       <c r="C347" s="24"/>
@@ -18109,7 +18109,7 @@
       <c r="N347" s="40"/>
       <c r="O347" s="20"/>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="35"/>
       <c r="B348" s="35"/>
       <c r="C348" s="35"/>
@@ -18126,7 +18126,7 @@
       <c r="N348" s="40"/>
       <c r="O348" s="20"/>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="35"/>
       <c r="B349" s="35"/>
       <c r="C349" s="35"/>
@@ -18143,7 +18143,7 @@
       <c r="N349" s="40"/>
       <c r="O349" s="20"/>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="35"/>
       <c r="B350" s="35"/>
       <c r="C350" s="35"/>
@@ -18160,7 +18160,7 @@
       <c r="N350" s="41"/>
       <c r="O350" s="21"/>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="35"/>
       <c r="B351" s="35"/>
       <c r="C351" s="35"/>
@@ -18177,7 +18177,7 @@
       <c r="N351" s="40"/>
       <c r="O351" s="20"/>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="35"/>
       <c r="B352" s="35"/>
       <c r="C352" s="35"/>
@@ -18194,7 +18194,7 @@
       <c r="N352" s="40"/>
       <c r="O352" s="20"/>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="35"/>
       <c r="B353" s="35"/>
       <c r="C353" s="35"/>
@@ -18211,7 +18211,7 @@
       <c r="N353" s="40"/>
       <c r="O353" s="20"/>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="35"/>
       <c r="B354" s="35"/>
       <c r="C354" s="35"/>
@@ -18228,7 +18228,7 @@
       <c r="N354" s="40"/>
       <c r="O354" s="20"/>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="35"/>
       <c r="B355" s="35"/>
       <c r="C355" s="35"/>
@@ -18245,7 +18245,7 @@
       <c r="N355" s="40"/>
       <c r="O355" s="20"/>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="35"/>
       <c r="B356" s="35"/>
       <c r="C356" s="35"/>
@@ -18262,7 +18262,7 @@
       <c r="N356" s="40"/>
       <c r="O356" s="20"/>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="35"/>
       <c r="B357" s="35"/>
       <c r="C357" s="35"/>
@@ -18279,7 +18279,7 @@
       <c r="N357" s="40"/>
       <c r="O357" s="20"/>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="35"/>
       <c r="B358" s="35"/>
       <c r="C358" s="35"/>
@@ -18296,7 +18296,7 @@
       <c r="N358" s="41"/>
       <c r="O358" s="21"/>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="35"/>
       <c r="B359" s="35"/>
       <c r="C359" s="35"/>
@@ -18313,7 +18313,7 @@
       <c r="N359" s="40"/>
       <c r="O359" s="20"/>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="35"/>
       <c r="B360" s="35"/>
       <c r="C360" s="35"/>
@@ -18330,7 +18330,7 @@
       <c r="N360" s="40"/>
       <c r="O360" s="20"/>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="35"/>
       <c r="B361" s="35"/>
       <c r="C361" s="35"/>
@@ -18347,7 +18347,7 @@
       <c r="N361" s="40"/>
       <c r="O361" s="20"/>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="35"/>
       <c r="B362" s="35"/>
       <c r="C362" s="35"/>
@@ -18364,7 +18364,7 @@
       <c r="N362" s="40"/>
       <c r="O362" s="20"/>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="35"/>
       <c r="B363" s="35"/>
       <c r="C363" s="35"/>
@@ -18381,7 +18381,7 @@
       <c r="N363" s="40"/>
       <c r="O363" s="20"/>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="35"/>
       <c r="B364" s="35"/>
       <c r="C364" s="35"/>
@@ -18398,7 +18398,7 @@
       <c r="N364" s="40"/>
       <c r="O364" s="20"/>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="35"/>
       <c r="B365" s="35"/>
       <c r="C365" s="35"/>
@@ -18415,7 +18415,7 @@
       <c r="N365" s="40"/>
       <c r="O365" s="20"/>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="35"/>
       <c r="B366" s="35"/>
       <c r="C366" s="35"/>
@@ -18432,7 +18432,7 @@
       <c r="N366" s="41"/>
       <c r="O366" s="21"/>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="35"/>
       <c r="B367" s="35"/>
       <c r="C367" s="35"/>
@@ -18449,7 +18449,7 @@
       <c r="N367" s="40"/>
       <c r="O367" s="20"/>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="35"/>
       <c r="B368" s="35"/>
       <c r="C368" s="35"/>
@@ -18466,7 +18466,7 @@
       <c r="N368" s="40"/>
       <c r="O368" s="20"/>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="35"/>
       <c r="B369" s="35"/>
       <c r="C369" s="35"/>
@@ -18483,7 +18483,7 @@
       <c r="N369" s="40"/>
       <c r="O369" s="20"/>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="35"/>
       <c r="B370" s="35"/>
       <c r="C370" s="35"/>
@@ -18500,7 +18500,7 @@
       <c r="N370" s="40"/>
       <c r="O370" s="20"/>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="35"/>
       <c r="B371" s="35"/>
       <c r="C371" s="35"/>
@@ -18517,7 +18517,7 @@
       <c r="N371" s="40"/>
       <c r="O371" s="20"/>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="35"/>
       <c r="B372" s="35"/>
       <c r="C372" s="35"/>
@@ -18534,7 +18534,7 @@
       <c r="N372" s="41"/>
       <c r="O372" s="21"/>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="35"/>
       <c r="B373" s="35"/>
       <c r="C373" s="35"/>
@@ -18551,7 +18551,7 @@
       <c r="N373" s="40"/>
       <c r="O373" s="20"/>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="35"/>
       <c r="B374" s="35"/>
       <c r="C374" s="35"/>
@@ -18568,7 +18568,7 @@
       <c r="N374" s="40"/>
       <c r="O374" s="20"/>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="35"/>
       <c r="B375" s="35"/>
       <c r="C375" s="35"/>
@@ -18585,7 +18585,7 @@
       <c r="N375" s="40"/>
       <c r="O375" s="20"/>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="35"/>
       <c r="B376" s="35"/>
       <c r="C376" s="35"/>
@@ -18602,7 +18602,7 @@
       <c r="N376" s="40"/>
       <c r="O376" s="20"/>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="35"/>
       <c r="B377" s="35"/>
       <c r="C377" s="35"/>
@@ -18619,7 +18619,7 @@
       <c r="N377" s="41"/>
       <c r="O377" s="21"/>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="35"/>
       <c r="B378" s="35"/>
       <c r="C378" s="35"/>
@@ -18636,7 +18636,7 @@
       <c r="N378" s="40"/>
       <c r="O378" s="20"/>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="35"/>
       <c r="B379" s="35"/>
       <c r="C379" s="35"/>
@@ -18653,7 +18653,7 @@
       <c r="N379" s="40"/>
       <c r="O379" s="20"/>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="35"/>
       <c r="B380" s="35"/>
       <c r="C380" s="35"/>
@@ -18670,7 +18670,7 @@
       <c r="N380" s="40"/>
       <c r="O380" s="20"/>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="35"/>
       <c r="B381" s="35"/>
       <c r="C381" s="35"/>
@@ -18687,7 +18687,7 @@
       <c r="N381" s="40"/>
       <c r="O381" s="20"/>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="35"/>
       <c r="B382" s="35"/>
       <c r="C382" s="35"/>
@@ -18704,7 +18704,7 @@
       <c r="N382" s="40"/>
       <c r="O382" s="20"/>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="35"/>
       <c r="B383" s="35"/>
       <c r="C383" s="35"/>
@@ -18721,7 +18721,7 @@
       <c r="N383" s="40"/>
       <c r="O383" s="20"/>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="35"/>
       <c r="B384" s="35"/>
       <c r="C384" s="35"/>
@@ -18738,7 +18738,7 @@
       <c r="N384" s="41"/>
       <c r="O384" s="21"/>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="35"/>
       <c r="B385" s="35"/>
       <c r="C385" s="35"/>
@@ -18755,7 +18755,7 @@
       <c r="N385" s="40"/>
       <c r="O385" s="20"/>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="35"/>
       <c r="B386" s="35"/>
       <c r="C386" s="35"/>
@@ -18772,7 +18772,7 @@
       <c r="N386" s="40"/>
       <c r="O386" s="20"/>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="35"/>
       <c r="B387" s="35"/>
       <c r="C387" s="35"/>
@@ -18789,7 +18789,7 @@
       <c r="N387" s="40"/>
       <c r="O387" s="20"/>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="35"/>
       <c r="B388" s="35"/>
       <c r="C388" s="35"/>
@@ -18806,7 +18806,7 @@
       <c r="N388" s="40"/>
       <c r="O388" s="20"/>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="35"/>
       <c r="B389" s="35"/>
       <c r="C389" s="35"/>
@@ -18823,7 +18823,7 @@
       <c r="N389" s="40"/>
       <c r="O389" s="20"/>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="35"/>
       <c r="B390" s="35"/>
       <c r="C390" s="35"/>
@@ -18840,7 +18840,7 @@
       <c r="N390" s="40"/>
       <c r="O390" s="20"/>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="35"/>
       <c r="B391" s="35"/>
       <c r="C391" s="35"/>
@@ -18857,7 +18857,7 @@
       <c r="N391" s="40"/>
       <c r="O391" s="20"/>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="35"/>
       <c r="B392" s="35"/>
       <c r="C392" s="35"/>
@@ -18874,7 +18874,7 @@
       <c r="N392" s="40"/>
       <c r="O392" s="20"/>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="35"/>
       <c r="B393" s="35"/>
       <c r="C393" s="35"/>
@@ -18891,7 +18891,7 @@
       <c r="N393" s="40"/>
       <c r="O393" s="20"/>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="35"/>
       <c r="B394" s="35"/>
       <c r="C394" s="35"/>
@@ -18908,7 +18908,7 @@
       <c r="N394" s="40"/>
       <c r="O394" s="20"/>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="35"/>
       <c r="B395" s="35"/>
       <c r="C395" s="35"/>
@@ -18925,7 +18925,7 @@
       <c r="N395" s="40"/>
       <c r="O395" s="20"/>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="35"/>
       <c r="B396" s="35"/>
       <c r="C396" s="35"/>
@@ -18942,7 +18942,7 @@
       <c r="N396" s="40"/>
       <c r="O396" s="20"/>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="35"/>
       <c r="B397" s="35"/>
       <c r="C397" s="35"/>
@@ -18959,7 +18959,7 @@
       <c r="N397" s="40"/>
       <c r="O397" s="20"/>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="35"/>
       <c r="B398" s="35"/>
       <c r="C398" s="35"/>
@@ -18976,7 +18976,7 @@
       <c r="N398" s="40"/>
       <c r="O398" s="20"/>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="35"/>
       <c r="B399" s="35"/>
       <c r="C399" s="35"/>
@@ -18993,7 +18993,7 @@
       <c r="N399" s="40"/>
       <c r="O399" s="20"/>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="35"/>
       <c r="B400" s="35"/>
       <c r="C400" s="35"/>
@@ -19010,7 +19010,7 @@
       <c r="N400" s="40"/>
       <c r="O400" s="20"/>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="35"/>
       <c r="B401" s="35"/>
       <c r="C401" s="35"/>
@@ -19027,7 +19027,7 @@
       <c r="N401" s="40"/>
       <c r="O401" s="20"/>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="35"/>
       <c r="B402" s="35"/>
       <c r="C402" s="35"/>
@@ -19044,7 +19044,7 @@
       <c r="N402" s="40"/>
       <c r="O402" s="20"/>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="35"/>
       <c r="B403" s="35"/>
       <c r="C403" s="35"/>
@@ -19061,7 +19061,7 @@
       <c r="N403" s="40"/>
       <c r="O403" s="20"/>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="35"/>
       <c r="B404" s="35"/>
       <c r="C404" s="35"/>
@@ -19078,7 +19078,7 @@
       <c r="N404" s="40"/>
       <c r="O404" s="20"/>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="35"/>
       <c r="B405" s="35"/>
       <c r="C405" s="35"/>
@@ -19095,7 +19095,7 @@
       <c r="N405" s="40"/>
       <c r="O405" s="20"/>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="35"/>
       <c r="B406" s="35"/>
       <c r="C406" s="35"/>
@@ -19112,7 +19112,7 @@
       <c r="N406" s="40"/>
       <c r="O406" s="20"/>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="35"/>
       <c r="B407" s="35"/>
       <c r="C407" s="35"/>
@@ -19129,7 +19129,7 @@
       <c r="N407" s="40"/>
       <c r="O407" s="20"/>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="35"/>
       <c r="B408" s="35"/>
       <c r="C408" s="35"/>
@@ -19146,7 +19146,7 @@
       <c r="N408" s="40"/>
       <c r="O408" s="20"/>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="35"/>
       <c r="B409" s="35"/>
       <c r="C409" s="35"/>
@@ -19163,7 +19163,7 @@
       <c r="N409" s="40"/>
       <c r="O409" s="20"/>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="35"/>
       <c r="B410" s="35"/>
       <c r="C410" s="35"/>
@@ -19180,7 +19180,7 @@
       <c r="N410" s="40"/>
       <c r="O410" s="20"/>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="35"/>
       <c r="B411" s="35"/>
       <c r="C411" s="35"/>
@@ -19197,7 +19197,7 @@
       <c r="N411" s="40"/>
       <c r="O411" s="20"/>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="35"/>
       <c r="B412" s="35"/>
       <c r="C412" s="35"/>
@@ -19214,7 +19214,7 @@
       <c r="N412" s="40"/>
       <c r="O412" s="20"/>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="35"/>
       <c r="B413" s="35"/>
       <c r="C413" s="35"/>
@@ -19231,7 +19231,7 @@
       <c r="N413" s="40"/>
       <c r="O413" s="20"/>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="35"/>
       <c r="B414" s="35"/>
       <c r="C414" s="35"/>
@@ -19248,7 +19248,7 @@
       <c r="N414" s="40"/>
       <c r="O414" s="20"/>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="35"/>
       <c r="B415" s="35"/>
       <c r="C415" s="35"/>
@@ -19265,7 +19265,7 @@
       <c r="N415" s="40"/>
       <c r="O415" s="20"/>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="35"/>
       <c r="B416" s="35"/>
       <c r="C416" s="35"/>
@@ -19282,7 +19282,7 @@
       <c r="N416" s="40"/>
       <c r="O416" s="20"/>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="35"/>
       <c r="B417" s="35"/>
       <c r="C417" s="35"/>
@@ -19299,7 +19299,7 @@
       <c r="N417" s="40"/>
       <c r="O417" s="20"/>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="35"/>
       <c r="B418" s="35"/>
       <c r="C418" s="35"/>
@@ -19316,7 +19316,7 @@
       <c r="N418" s="40"/>
       <c r="O418" s="20"/>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="35"/>
       <c r="B419" s="35"/>
       <c r="C419" s="35"/>
@@ -19333,7 +19333,7 @@
       <c r="N419" s="40"/>
       <c r="O419" s="20"/>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="35"/>
       <c r="B420" s="35"/>
       <c r="C420" s="35"/>
@@ -19350,7 +19350,7 @@
       <c r="N420" s="40"/>
       <c r="O420" s="20"/>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="35"/>
       <c r="B421" s="35"/>
       <c r="C421" s="35"/>
@@ -19367,7 +19367,7 @@
       <c r="N421" s="40"/>
       <c r="O421" s="20"/>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="35"/>
       <c r="B422" s="35"/>
       <c r="C422" s="35"/>
@@ -19384,7 +19384,7 @@
       <c r="N422" s="40"/>
       <c r="O422" s="20"/>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="35"/>
       <c r="B423" s="35"/>
       <c r="C423" s="35"/>
@@ -19401,7 +19401,7 @@
       <c r="N423" s="40"/>
       <c r="O423" s="20"/>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="35"/>
       <c r="B424" s="35"/>
       <c r="C424" s="35"/>
@@ -19418,7 +19418,7 @@
       <c r="N424" s="40"/>
       <c r="O424" s="20"/>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="35"/>
       <c r="B425" s="35"/>
       <c r="C425" s="35"/>
@@ -19435,7 +19435,7 @@
       <c r="N425" s="40"/>
       <c r="O425" s="20"/>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="35"/>
       <c r="B426" s="35"/>
       <c r="C426" s="35"/>
@@ -19452,7 +19452,7 @@
       <c r="N426" s="40"/>
       <c r="O426" s="20"/>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="35"/>
       <c r="B427" s="35"/>
       <c r="C427" s="35"/>
@@ -19469,7 +19469,7 @@
       <c r="N427" s="41"/>
       <c r="O427" s="21"/>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="17"/>
       <c r="B428" s="17"/>
       <c r="C428" s="19"/>
@@ -19486,7 +19486,7 @@
       <c r="N428" s="40"/>
       <c r="O428" s="20"/>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="17"/>
       <c r="B429" s="17"/>
       <c r="C429" s="19"/>
@@ -19503,7 +19503,7 @@
       <c r="N429" s="40"/>
       <c r="O429" s="20"/>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="17"/>
       <c r="B430" s="17"/>
       <c r="C430" s="19"/>
@@ -19520,7 +19520,7 @@
       <c r="N430" s="40"/>
       <c r="O430" s="20"/>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="17"/>
       <c r="B431" s="17"/>
       <c r="C431" s="19"/>
@@ -19537,7 +19537,7 @@
       <c r="N431" s="41"/>
       <c r="O431" s="21"/>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="17"/>
       <c r="B432" s="17"/>
       <c r="C432" s="19"/>
@@ -19554,7 +19554,7 @@
       <c r="N432" s="40"/>
       <c r="O432" s="20"/>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="17"/>
       <c r="B433" s="17"/>
       <c r="C433" s="19"/>
@@ -19571,7 +19571,7 @@
       <c r="N433" s="40"/>
       <c r="O433" s="20"/>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="17"/>
       <c r="B434" s="17"/>
       <c r="C434" s="19"/>
@@ -19588,7 +19588,7 @@
       <c r="N434" s="40"/>
       <c r="O434" s="20"/>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="17"/>
       <c r="B435" s="17"/>
       <c r="C435" s="19"/>
@@ -19605,7 +19605,7 @@
       <c r="N435" s="40"/>
       <c r="O435" s="20"/>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="17"/>
       <c r="B436" s="17"/>
       <c r="C436" s="19"/>
@@ -19622,7 +19622,7 @@
       <c r="N436" s="40"/>
       <c r="O436" s="20"/>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="17"/>
       <c r="B437" s="17"/>
       <c r="C437" s="19"/>
@@ -19639,7 +19639,7 @@
       <c r="N437" s="40"/>
       <c r="O437" s="20"/>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="17"/>
       <c r="B438" s="17"/>
       <c r="C438" s="19"/>
@@ -19656,7 +19656,7 @@
       <c r="N438" s="40"/>
       <c r="O438" s="20"/>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="17"/>
       <c r="B439" s="17"/>
       <c r="C439" s="19"/>
@@ -19673,7 +19673,7 @@
       <c r="N439" s="40"/>
       <c r="O439" s="20"/>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="17"/>
       <c r="B440" s="17"/>
       <c r="C440" s="19"/>
@@ -19690,7 +19690,7 @@
       <c r="N440" s="40"/>
       <c r="O440" s="20"/>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="17"/>
       <c r="B441" s="17"/>
       <c r="C441" s="19"/>
@@ -19707,7 +19707,7 @@
       <c r="N441" s="40"/>
       <c r="O441" s="20"/>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="17"/>
       <c r="B442" s="17"/>
       <c r="C442" s="19"/>
@@ -19724,7 +19724,7 @@
       <c r="N442" s="40"/>
       <c r="O442" s="20"/>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="17"/>
       <c r="B443" s="17"/>
       <c r="C443" s="19"/>
@@ -19741,7 +19741,7 @@
       <c r="N443" s="40"/>
       <c r="O443" s="20"/>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="17"/>
       <c r="B444" s="17"/>
       <c r="C444" s="19"/>
@@ -19758,7 +19758,7 @@
       <c r="N444" s="40"/>
       <c r="O444" s="20"/>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="17"/>
       <c r="B445" s="17"/>
       <c r="C445" s="19"/>
@@ -19775,7 +19775,7 @@
       <c r="N445" s="40"/>
       <c r="O445" s="20"/>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="17"/>
       <c r="B446" s="17"/>
       <c r="C446" s="19"/>
@@ -19792,7 +19792,7 @@
       <c r="N446" s="40"/>
       <c r="O446" s="20"/>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="17"/>
       <c r="B447" s="17"/>
       <c r="C447" s="19"/>
@@ -19809,7 +19809,7 @@
       <c r="N447" s="41"/>
       <c r="O447" s="21"/>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="17"/>
       <c r="B448" s="17"/>
       <c r="C448" s="19"/>
@@ -19826,7 +19826,7 @@
       <c r="N448" s="40"/>
       <c r="O448" s="20"/>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="17"/>
       <c r="B449" s="17"/>
       <c r="C449" s="19"/>
@@ -19843,7 +19843,7 @@
       <c r="N449" s="40"/>
       <c r="O449" s="20"/>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="17"/>
       <c r="B450" s="17"/>
       <c r="C450" s="19"/>
@@ -19860,7 +19860,7 @@
       <c r="N450" s="40"/>
       <c r="O450" s="20"/>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="17"/>
       <c r="B451" s="17"/>
       <c r="C451" s="19"/>
@@ -19877,7 +19877,7 @@
       <c r="N451" s="41"/>
       <c r="O451" s="21"/>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="17"/>
       <c r="B452" s="17"/>
       <c r="C452" s="19"/>
@@ -19894,7 +19894,7 @@
       <c r="N452" s="40"/>
       <c r="O452" s="20"/>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="17"/>
       <c r="B453" s="17"/>
       <c r="C453" s="19"/>
@@ -19911,7 +19911,7 @@
       <c r="N453" s="40"/>
       <c r="O453" s="20"/>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="17"/>
       <c r="B454" s="17"/>
       <c r="C454" s="19"/>
@@ -19928,7 +19928,7 @@
       <c r="N454" s="40"/>
       <c r="O454" s="20"/>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="17"/>
       <c r="B455" s="17"/>
       <c r="C455" s="19"/>
@@ -19945,7 +19945,7 @@
       <c r="N455" s="40"/>
       <c r="O455" s="20"/>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="17"/>
       <c r="B456" s="17"/>
       <c r="C456" s="19"/>
@@ -19962,7 +19962,7 @@
       <c r="N456" s="40"/>
       <c r="O456" s="20"/>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="17"/>
       <c r="B457" s="17"/>
       <c r="C457" s="19"/>
@@ -19979,7 +19979,7 @@
       <c r="N457" s="40"/>
       <c r="O457" s="20"/>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="17"/>
       <c r="B458" s="17"/>
       <c r="C458" s="19"/>
@@ -19996,7 +19996,7 @@
       <c r="N458" s="41"/>
       <c r="O458" s="21"/>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="17"/>
       <c r="B459" s="17"/>
       <c r="C459" s="19"/>
@@ -20013,7 +20013,7 @@
       <c r="N459" s="40"/>
       <c r="O459" s="20"/>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="17"/>
       <c r="B460" s="17"/>
       <c r="C460" s="19"/>
@@ -20030,7 +20030,7 @@
       <c r="N460" s="40"/>
       <c r="O460" s="20"/>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="17"/>
       <c r="B461" s="17"/>
       <c r="C461" s="19"/>
@@ -20047,7 +20047,7 @@
       <c r="N461" s="40"/>
       <c r="O461" s="20"/>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="17"/>
       <c r="B462" s="17"/>
       <c r="C462" s="19"/>
@@ -20064,7 +20064,7 @@
       <c r="N462" s="40"/>
       <c r="O462" s="20"/>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="17"/>
       <c r="B463" s="17"/>
       <c r="C463" s="19"/>
@@ -20081,7 +20081,7 @@
       <c r="N463" s="40"/>
       <c r="O463" s="20"/>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="17"/>
       <c r="B464" s="17"/>
       <c r="C464" s="19"/>
@@ -20098,7 +20098,7 @@
       <c r="N464" s="41"/>
       <c r="O464" s="21"/>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="17"/>
       <c r="B465" s="17"/>
       <c r="C465" s="19"/>
@@ -20115,7 +20115,7 @@
       <c r="N465" s="40"/>
       <c r="O465" s="20"/>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="17"/>
       <c r="B466" s="17"/>
       <c r="C466" s="19"/>
@@ -20132,7 +20132,7 @@
       <c r="N466" s="40"/>
       <c r="O466" s="20"/>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="17"/>
       <c r="B467" s="17"/>
       <c r="C467" s="19"/>
@@ -20149,7 +20149,7 @@
       <c r="N467" s="40"/>
       <c r="O467" s="20"/>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="17"/>
       <c r="B468" s="17"/>
       <c r="C468" s="19"/>
@@ -20166,7 +20166,7 @@
       <c r="N468" s="40"/>
       <c r="O468" s="20"/>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="17"/>
       <c r="B469" s="17"/>
       <c r="C469" s="19"/>
@@ -20183,7 +20183,7 @@
       <c r="N469" s="40"/>
       <c r="O469" s="20"/>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="17"/>
       <c r="B470" s="17"/>
       <c r="C470" s="19"/>
@@ -20200,7 +20200,7 @@
       <c r="N470" s="40"/>
       <c r="O470" s="20"/>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="17"/>
       <c r="B471" s="17"/>
       <c r="C471" s="19"/>
@@ -20217,7 +20217,7 @@
       <c r="N471" s="41"/>
       <c r="O471" s="21"/>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="17"/>
       <c r="B472" s="17"/>
       <c r="C472" s="19"/>
@@ -20234,7 +20234,7 @@
       <c r="N472" s="40"/>
       <c r="O472" s="20"/>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="17"/>
       <c r="B473" s="17"/>
       <c r="C473" s="19"/>
@@ -20251,7 +20251,7 @@
       <c r="N473" s="40"/>
       <c r="O473" s="20"/>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="17"/>
       <c r="B474" s="17"/>
       <c r="C474" s="19"/>
@@ -20268,7 +20268,7 @@
       <c r="N474" s="40"/>
       <c r="O474" s="20"/>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="17"/>
       <c r="B475" s="17"/>
       <c r="C475" s="19"/>
@@ -20285,7 +20285,7 @@
       <c r="N475" s="40"/>
       <c r="O475" s="20"/>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="17"/>
       <c r="B476" s="17"/>
       <c r="C476" s="19"/>
@@ -20302,7 +20302,7 @@
       <c r="N476" s="41"/>
       <c r="O476" s="21"/>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="17"/>
       <c r="B477" s="17"/>
       <c r="C477" s="19"/>
@@ -20319,7 +20319,7 @@
       <c r="N477" s="40"/>
       <c r="O477" s="20"/>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="17"/>
       <c r="B478" s="17"/>
       <c r="C478" s="19"/>
@@ -20336,7 +20336,7 @@
       <c r="N478" s="40"/>
       <c r="O478" s="20"/>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="17"/>
       <c r="B479" s="17"/>
       <c r="C479" s="19"/>
@@ -20353,7 +20353,7 @@
       <c r="N479" s="40"/>
       <c r="O479" s="20"/>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="17"/>
       <c r="B480" s="17"/>
       <c r="C480" s="19"/>
@@ -20370,7 +20370,7 @@
       <c r="N480" s="40"/>
       <c r="O480" s="20"/>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="17"/>
       <c r="B481" s="17"/>
       <c r="C481" s="19"/>
@@ -20387,7 +20387,7 @@
       <c r="N481" s="40"/>
       <c r="O481" s="20"/>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="17"/>
       <c r="B482" s="17"/>
       <c r="C482" s="19"/>
@@ -20404,7 +20404,7 @@
       <c r="N482" s="40"/>
       <c r="O482" s="20"/>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="17"/>
       <c r="B483" s="17"/>
       <c r="C483" s="19"/>
@@ -20421,7 +20421,7 @@
       <c r="N483" s="40"/>
       <c r="O483" s="20"/>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="17"/>
       <c r="B484" s="17"/>
       <c r="C484" s="19"/>
@@ -20438,7 +20438,7 @@
       <c r="N484" s="40"/>
       <c r="O484" s="20"/>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="17"/>
       <c r="B485" s="17"/>
       <c r="C485" s="19"/>
@@ -20455,7 +20455,7 @@
       <c r="N485" s="40"/>
       <c r="O485" s="20"/>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="17"/>
       <c r="B486" s="17"/>
       <c r="C486" s="19"/>
@@ -20472,7 +20472,7 @@
       <c r="N486" s="41"/>
       <c r="O486" s="21"/>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="17"/>
       <c r="B487" s="17"/>
       <c r="C487" s="19"/>
@@ -20489,7 +20489,7 @@
       <c r="N487" s="40"/>
       <c r="O487" s="20"/>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="17"/>
       <c r="B488" s="17"/>
       <c r="C488" s="19"/>
@@ -20506,7 +20506,7 @@
       <c r="N488" s="40"/>
       <c r="O488" s="20"/>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="17"/>
       <c r="B489" s="17"/>
       <c r="C489" s="19"/>
@@ -20523,7 +20523,7 @@
       <c r="N489" s="40"/>
       <c r="O489" s="20"/>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="17"/>
       <c r="B490" s="17"/>
       <c r="C490" s="19"/>
@@ -20540,7 +20540,7 @@
       <c r="N490" s="40"/>
       <c r="O490" s="20"/>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="17"/>
       <c r="B491" s="17"/>
       <c r="C491" s="19"/>
@@ -20557,7 +20557,7 @@
       <c r="N491" s="41"/>
       <c r="O491" s="21"/>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="17"/>
       <c r="B492" s="17"/>
       <c r="C492" s="19"/>
@@ -20574,7 +20574,7 @@
       <c r="N492" s="40"/>
       <c r="O492" s="20"/>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="17"/>
       <c r="B493" s="17"/>
       <c r="C493" s="19"/>
@@ -20591,7 +20591,7 @@
       <c r="N493" s="40"/>
       <c r="O493" s="20"/>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="17"/>
       <c r="B494" s="17"/>
       <c r="C494" s="19"/>
@@ -20608,7 +20608,7 @@
       <c r="N494" s="40"/>
       <c r="O494" s="20"/>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="17"/>
       <c r="B495" s="17"/>
       <c r="C495" s="19"/>
@@ -20625,7 +20625,7 @@
       <c r="N495" s="40"/>
       <c r="O495" s="20"/>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="17"/>
       <c r="B496" s="17"/>
       <c r="C496" s="19"/>
@@ -20642,7 +20642,7 @@
       <c r="N496" s="40"/>
       <c r="O496" s="20"/>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="17"/>
       <c r="B497" s="17"/>
       <c r="C497" s="19"/>
@@ -20659,7 +20659,7 @@
       <c r="N497" s="40"/>
       <c r="O497" s="20"/>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="17"/>
       <c r="B498" s="17"/>
       <c r="C498" s="19"/>
@@ -20676,7 +20676,7 @@
       <c r="N498" s="40"/>
       <c r="O498" s="20"/>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="17"/>
       <c r="B499" s="17"/>
       <c r="C499" s="19"/>
@@ -20693,7 +20693,7 @@
       <c r="N499" s="40"/>
       <c r="O499" s="20"/>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="17"/>
       <c r="B500" s="17"/>
       <c r="C500" s="19"/>
@@ -20710,7 +20710,7 @@
       <c r="N500" s="40"/>
       <c r="O500" s="20"/>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="17"/>
       <c r="B501" s="17"/>
       <c r="C501" s="19"/>
@@ -20727,7 +20727,7 @@
       <c r="N501" s="40"/>
       <c r="O501" s="20"/>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="17"/>
       <c r="B502" s="17"/>
       <c r="C502" s="19"/>
@@ -20744,7 +20744,7 @@
       <c r="N502" s="40"/>
       <c r="O502" s="20"/>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="17"/>
       <c r="B503" s="17"/>
       <c r="C503" s="19"/>
@@ -20761,7 +20761,7 @@
       <c r="N503" s="40"/>
       <c r="O503" s="20"/>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="17"/>
       <c r="B504" s="17"/>
       <c r="C504" s="19"/>
@@ -20778,7 +20778,7 @@
       <c r="N504" s="40"/>
       <c r="O504" s="20"/>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="17"/>
       <c r="B514" s="17"/>
       <c r="C514" s="19"/>
@@ -20795,7 +20795,7 @@
       <c r="N514" s="41"/>
       <c r="O514" s="21"/>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="17"/>
       <c r="B515" s="17"/>
       <c r="C515" s="19"/>
@@ -20812,7 +20812,7 @@
       <c r="N515" s="41"/>
       <c r="O515" s="21"/>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="17"/>
       <c r="B516" s="17"/>
       <c r="C516" s="19"/>
@@ -20829,7 +20829,7 @@
       <c r="N516" s="41"/>
       <c r="O516" s="21"/>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="17"/>
       <c r="B517" s="17"/>
       <c r="C517" s="19"/>
@@ -20846,7 +20846,7 @@
       <c r="N517" s="41"/>
       <c r="O517" s="21"/>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="17"/>
       <c r="B518" s="17"/>
       <c r="C518" s="19"/>
@@ -20863,7 +20863,7 @@
       <c r="N518" s="41"/>
       <c r="O518" s="21"/>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="17"/>
       <c r="B519" s="17"/>
       <c r="C519" s="19"/>
@@ -20880,7 +20880,7 @@
       <c r="N519" s="41"/>
       <c r="O519" s="21"/>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="17"/>
       <c r="B520" s="17"/>
       <c r="C520" s="19"/>
@@ -20897,7 +20897,7 @@
       <c r="N520" s="41"/>
       <c r="O520" s="21"/>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="17"/>
       <c r="B521" s="17"/>
       <c r="C521" s="19"/>
@@ -20914,7 +20914,7 @@
       <c r="N521" s="41"/>
       <c r="O521" s="21"/>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="17"/>
       <c r="B522" s="17"/>
       <c r="C522" s="19"/>
@@ -20931,7 +20931,7 @@
       <c r="N522" s="41"/>
       <c r="O522" s="21"/>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="17"/>
       <c r="B523" s="17"/>
       <c r="C523" s="19"/>
@@ -20948,7 +20948,7 @@
       <c r="N523" s="41"/>
       <c r="O523" s="21"/>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="17"/>
       <c r="B524" s="17"/>
       <c r="C524" s="19"/>
@@ -20965,7 +20965,7 @@
       <c r="N524" s="41"/>
       <c r="O524" s="21"/>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="17"/>
       <c r="B525" s="17"/>
       <c r="C525" s="19"/>
@@ -20982,7 +20982,7 @@
       <c r="N525" s="41"/>
       <c r="O525" s="21"/>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="17"/>
       <c r="B526" s="17"/>
       <c r="C526" s="19"/>
@@ -20999,7 +20999,7 @@
       <c r="N526" s="41"/>
       <c r="O526" s="21"/>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="17"/>
       <c r="B527" s="17"/>
       <c r="C527" s="19"/>
@@ -21016,7 +21016,7 @@
       <c r="N527" s="40"/>
       <c r="O527" s="20"/>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="17"/>
       <c r="B528" s="17"/>
       <c r="C528" s="19"/>
@@ -21033,7 +21033,7 @@
       <c r="N528" s="40"/>
       <c r="O528" s="20"/>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="17"/>
       <c r="B529" s="17"/>
       <c r="C529" s="19"/>
@@ -21050,7 +21050,7 @@
       <c r="N529" s="40"/>
       <c r="O529" s="20"/>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="17"/>
       <c r="B530" s="17"/>
       <c r="C530" s="19"/>
@@ -21067,7 +21067,7 @@
       <c r="N530" s="40"/>
       <c r="O530" s="20"/>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="17"/>
       <c r="B531" s="17"/>
       <c r="C531" s="19"/>
@@ -21084,7 +21084,7 @@
       <c r="N531" s="40"/>
       <c r="O531" s="20"/>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="17"/>
       <c r="B532" s="17"/>
       <c r="C532" s="2"/>
@@ -21101,7 +21101,7 @@
       <c r="N532" s="40"/>
       <c r="O532" s="20"/>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="17"/>
       <c r="B533" s="17"/>
       <c r="C533" s="2"/>
@@ -21118,7 +21118,7 @@
       <c r="N533" s="40"/>
       <c r="O533" s="20"/>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="17"/>
       <c r="B534" s="17"/>
       <c r="C534" s="2"/>
@@ -21135,7 +21135,7 @@
       <c r="N534" s="40"/>
       <c r="O534" s="20"/>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="17"/>
       <c r="B535" s="17"/>
       <c r="C535" s="2"/>
@@ -21152,7 +21152,7 @@
       <c r="N535" s="40"/>
       <c r="O535" s="20"/>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="17"/>
       <c r="B536" s="17"/>
       <c r="C536" s="2"/>
@@ -21169,7 +21169,7 @@
       <c r="N536" s="41"/>
       <c r="O536" s="21"/>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="17"/>
       <c r="B537" s="17"/>
       <c r="C537" s="2"/>
@@ -21186,7 +21186,7 @@
       <c r="N537" s="40"/>
       <c r="O537" s="20"/>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="17"/>
       <c r="B538" s="17"/>
       <c r="C538" s="2"/>
@@ -21203,7 +21203,7 @@
       <c r="N538" s="40"/>
       <c r="O538" s="20"/>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="17"/>
       <c r="B539" s="17"/>
       <c r="C539" s="2"/>
@@ -21220,7 +21220,7 @@
       <c r="N539" s="40"/>
       <c r="O539" s="20"/>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="17"/>
       <c r="B540" s="17"/>
       <c r="C540" s="2"/>
@@ -21237,7 +21237,7 @@
       <c r="N540" s="40"/>
       <c r="O540" s="20"/>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="17"/>
       <c r="B541" s="17"/>
       <c r="C541" s="2"/>
@@ -21254,7 +21254,7 @@
       <c r="N541" s="40"/>
       <c r="O541" s="20"/>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="17"/>
       <c r="B542" s="17"/>
       <c r="C542" s="2"/>
@@ -21271,7 +21271,7 @@
       <c r="N542" s="40"/>
       <c r="O542" s="20"/>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="17"/>
       <c r="B543" s="17"/>
       <c r="C543" s="2"/>
@@ -21288,7 +21288,7 @@
       <c r="N543" s="40"/>
       <c r="O543" s="20"/>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="17"/>
       <c r="B544" s="17"/>
       <c r="C544" s="2"/>
@@ -21305,7 +21305,7 @@
       <c r="N544" s="40"/>
       <c r="O544" s="20"/>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="17"/>
       <c r="B545" s="17"/>
       <c r="C545" s="19"/>
@@ -21322,7 +21322,7 @@
       <c r="N545" s="40"/>
       <c r="O545" s="20"/>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="17"/>
       <c r="B546" s="17"/>
       <c r="C546" s="19"/>
@@ -21339,7 +21339,7 @@
       <c r="N546" s="40"/>
       <c r="O546" s="20"/>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="17"/>
       <c r="B547" s="17"/>
       <c r="C547" s="19"/>
@@ -21356,7 +21356,7 @@
       <c r="N547" s="40"/>
       <c r="O547" s="20"/>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="17"/>
       <c r="B548" s="17"/>
       <c r="C548" s="19"/>
@@ -21373,7 +21373,7 @@
       <c r="N548" s="41"/>
       <c r="O548" s="21"/>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="17"/>
       <c r="B549" s="17"/>
       <c r="C549" s="19"/>
@@ -21390,7 +21390,7 @@
       <c r="N549" s="40"/>
       <c r="O549" s="20"/>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="17"/>
       <c r="B550" s="17"/>
       <c r="C550" s="19"/>
@@ -21407,7 +21407,7 @@
       <c r="N550" s="40"/>
       <c r="O550" s="20"/>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="17"/>
       <c r="B551" s="17"/>
       <c r="C551" s="19"/>
@@ -21424,7 +21424,7 @@
       <c r="N551" s="40"/>
       <c r="O551" s="20"/>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="17"/>
       <c r="B552" s="17"/>
       <c r="C552" s="19"/>
@@ -21441,7 +21441,7 @@
       <c r="N552" s="41"/>
       <c r="O552" s="21"/>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="17"/>
       <c r="B553" s="17"/>
       <c r="C553" s="19"/>
@@ -21458,7 +21458,7 @@
       <c r="N553" s="40"/>
       <c r="O553" s="20"/>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="17"/>
       <c r="B554" s="17"/>
       <c r="C554" s="19"/>
@@ -21475,7 +21475,7 @@
       <c r="N554" s="40"/>
       <c r="O554" s="20"/>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" s="17"/>
       <c r="B555" s="17"/>
       <c r="C555" s="19"/>
@@ -21492,7 +21492,7 @@
       <c r="N555" s="40"/>
       <c r="O555" s="20"/>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" s="17"/>
       <c r="B556" s="17"/>
       <c r="C556" s="19"/>
@@ -21509,7 +21509,7 @@
       <c r="N556" s="40"/>
       <c r="O556" s="20"/>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" s="17"/>
       <c r="B557" s="17"/>
       <c r="C557" s="19"/>
@@ -21526,7 +21526,7 @@
       <c r="N557" s="40"/>
       <c r="O557" s="20"/>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" s="17"/>
       <c r="B558" s="17"/>
       <c r="C558" s="19"/>
@@ -21543,7 +21543,7 @@
       <c r="N558" s="41"/>
       <c r="O558" s="21"/>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="17"/>
       <c r="B559" s="17"/>
       <c r="C559" s="19"/>
@@ -21560,7 +21560,7 @@
       <c r="N559" s="40"/>
       <c r="O559" s="20"/>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" s="17"/>
       <c r="B560" s="17"/>
       <c r="C560" s="19"/>
@@ -21577,7 +21577,7 @@
       <c r="N560" s="40"/>
       <c r="O560" s="20"/>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="17"/>
       <c r="B561" s="17"/>
       <c r="C561" s="19"/>
@@ -21594,7 +21594,7 @@
       <c r="N561" s="40"/>
       <c r="O561" s="20"/>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" s="17"/>
       <c r="B562" s="17"/>
       <c r="C562" s="19"/>
@@ -21611,7 +21611,7 @@
       <c r="N562" s="40"/>
       <c r="O562" s="20"/>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" s="17"/>
       <c r="B563" s="17"/>
       <c r="C563" s="19"/>
@@ -21628,7 +21628,7 @@
       <c r="N563" s="40"/>
       <c r="O563" s="20"/>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" s="17"/>
       <c r="B564" s="17"/>
       <c r="C564" s="19"/>
@@ -21645,7 +21645,7 @@
       <c r="N564" s="41"/>
       <c r="O564" s="21"/>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="17"/>
       <c r="B565" s="17"/>
       <c r="C565" s="19"/>
@@ -21662,7 +21662,7 @@
       <c r="N565" s="40"/>
       <c r="O565" s="20"/>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" s="17"/>
       <c r="B566" s="17"/>
       <c r="C566" s="19"/>
@@ -21679,7 +21679,7 @@
       <c r="N566" s="40"/>
       <c r="O566" s="20"/>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" s="17"/>
       <c r="B567" s="17"/>
       <c r="C567" s="19"/>
@@ -21696,7 +21696,7 @@
       <c r="N567" s="41"/>
       <c r="O567" s="21"/>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" s="17"/>
       <c r="B568" s="17"/>
       <c r="C568" s="19"/>
@@ -21713,7 +21713,7 @@
       <c r="N568" s="40"/>
       <c r="O568" s="20"/>
     </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" s="17"/>
       <c r="B569" s="17"/>
       <c r="C569" s="19"/>
@@ -21730,7 +21730,7 @@
       <c r="N569" s="40"/>
       <c r="O569" s="20"/>
     </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" s="17"/>
       <c r="B570" s="17"/>
       <c r="C570" s="19"/>
@@ -21747,7 +21747,7 @@
       <c r="N570" s="40"/>
       <c r="O570" s="20"/>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" s="17"/>
       <c r="B571" s="17"/>
       <c r="C571" s="19"/>
@@ -21764,7 +21764,7 @@
       <c r="N571" s="41"/>
       <c r="O571" s="21"/>
     </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" s="17"/>
       <c r="B572" s="17"/>
       <c r="C572" s="19"/>
@@ -21781,7 +21781,7 @@
       <c r="N572" s="40"/>
       <c r="O572" s="20"/>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" s="17"/>
       <c r="B573" s="17"/>
       <c r="C573" s="19"/>
@@ -21798,7 +21798,7 @@
       <c r="N573" s="40"/>
       <c r="O573" s="20"/>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" s="17"/>
       <c r="B574" s="17"/>
       <c r="C574" s="19"/>
@@ -21815,7 +21815,7 @@
       <c r="N574" s="40"/>
       <c r="O574" s="20"/>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" s="17"/>
       <c r="B575" s="17"/>
       <c r="C575" s="19"/>
@@ -21832,7 +21832,7 @@
       <c r="N575" s="40"/>
       <c r="O575" s="20"/>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" s="17"/>
       <c r="B576" s="17"/>
       <c r="C576" s="19"/>
@@ -21849,7 +21849,7 @@
       <c r="N576" s="41"/>
       <c r="O576" s="21"/>
     </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" s="17"/>
       <c r="B577" s="17"/>
       <c r="C577" s="19"/>
@@ -21866,7 +21866,7 @@
       <c r="N577" s="40"/>
       <c r="O577" s="20"/>
     </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" s="17"/>
       <c r="B578" s="17"/>
       <c r="C578" s="19"/>
@@ -21883,7 +21883,7 @@
       <c r="N578" s="41"/>
       <c r="O578" s="21"/>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" s="17"/>
       <c r="B579" s="17"/>
       <c r="C579" s="19"/>
@@ -21900,7 +21900,7 @@
       <c r="N579" s="40"/>
       <c r="O579" s="20"/>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" s="17"/>
       <c r="B580" s="17"/>
       <c r="C580" s="19"/>
@@ -21917,7 +21917,7 @@
       <c r="N580" s="40"/>
       <c r="O580" s="20"/>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" s="17"/>
       <c r="B581" s="17"/>
       <c r="C581" s="19"/>
@@ -21934,7 +21934,7 @@
       <c r="N581" s="40"/>
       <c r="O581" s="20"/>
     </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" s="17"/>
       <c r="B582" s="17"/>
       <c r="C582" s="19"/>
@@ -21951,7 +21951,7 @@
       <c r="N582" s="40"/>
       <c r="O582" s="20"/>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" s="17"/>
       <c r="B583" s="17"/>
       <c r="C583" s="19"/>
@@ -21968,7 +21968,7 @@
       <c r="N583" s="40"/>
       <c r="O583" s="20"/>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" s="17"/>
       <c r="B584" s="17"/>
       <c r="C584" s="19"/>
@@ -21985,7 +21985,7 @@
       <c r="N584" s="40"/>
       <c r="O584" s="20"/>
     </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" s="17"/>
       <c r="B585" s="17"/>
       <c r="C585" s="19"/>
@@ -22002,7 +22002,7 @@
       <c r="N585" s="40"/>
       <c r="O585" s="20"/>
     </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" s="17"/>
       <c r="B586" s="17"/>
       <c r="C586" s="19"/>
@@ -22019,7 +22019,7 @@
       <c r="N586" s="40"/>
       <c r="O586" s="20"/>
     </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" s="17"/>
       <c r="B587" s="17"/>
       <c r="C587" s="19"/>
@@ -22036,7 +22036,7 @@
       <c r="N587" s="40"/>
       <c r="O587" s="20"/>
     </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" s="17"/>
       <c r="B588" s="17"/>
       <c r="C588" s="19"/>
@@ -22053,7 +22053,7 @@
       <c r="N588" s="40"/>
       <c r="O588" s="20"/>
     </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" s="17"/>
       <c r="B589" s="17"/>
       <c r="C589" s="19"/>
@@ -22070,7 +22070,7 @@
       <c r="N589" s="40"/>
       <c r="O589" s="20"/>
     </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" s="17"/>
       <c r="B590" s="17"/>
       <c r="C590" s="19"/>
@@ -22087,7 +22087,7 @@
       <c r="N590" s="41"/>
       <c r="O590" s="21"/>
     </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" s="17"/>
       <c r="B591" s="17"/>
       <c r="C591" s="19"/>
@@ -22104,7 +22104,7 @@
       <c r="N591" s="40"/>
       <c r="O591" s="20"/>
     </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" s="17"/>
       <c r="B592" s="17"/>
       <c r="C592" s="19"/>
@@ -22121,7 +22121,7 @@
       <c r="N592" s="40"/>
       <c r="O592" s="20"/>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A593" s="17"/>
       <c r="B593" s="17"/>
       <c r="C593" s="19"/>
@@ -22138,21 +22138,21 @@
       <c r="N593" s="40"/>
       <c r="O593" s="20"/>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I594" s="1"/>
       <c r="J594" s="1"/>
       <c r="K594" s="1"/>
       <c r="L594" s="1"/>
       <c r="M594" s="1"/>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I595" s="1"/>
       <c r="J595" s="1"/>
       <c r="K595" s="1"/>
       <c r="L595" s="1"/>
       <c r="M595" s="1"/>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" s="17"/>
       <c r="B596" s="17"/>
       <c r="C596" s="19"/>
@@ -22169,7 +22169,7 @@
       <c r="N596" s="40"/>
       <c r="O596" s="20"/>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" s="17"/>
       <c r="B597" s="17"/>
       <c r="C597" s="19"/>
@@ -22186,7 +22186,7 @@
       <c r="N597" s="40"/>
       <c r="O597" s="20"/>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" s="17"/>
       <c r="B598" s="17"/>
       <c r="C598" s="19"/>
@@ -22203,7 +22203,7 @@
       <c r="N598" s="40"/>
       <c r="O598" s="20"/>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" s="17"/>
       <c r="B599" s="17"/>
       <c r="C599" s="19"/>
@@ -22220,7 +22220,7 @@
       <c r="N599" s="40"/>
       <c r="O599" s="20"/>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" s="17"/>
       <c r="B600" s="17"/>
       <c r="C600" s="19"/>
@@ -22237,7 +22237,7 @@
       <c r="N600" s="40"/>
       <c r="O600" s="20"/>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" s="17"/>
       <c r="B601" s="17"/>
       <c r="C601" s="19"/>
@@ -22254,7 +22254,7 @@
       <c r="N601" s="40"/>
       <c r="O601" s="20"/>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" s="17"/>
       <c r="B602" s="17"/>
       <c r="C602" s="19"/>
@@ -22271,7 +22271,7 @@
       <c r="N602" s="40"/>
       <c r="O602" s="20"/>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A603" s="17"/>
       <c r="B603" s="17"/>
       <c r="C603" s="19"/>
@@ -22288,7 +22288,7 @@
       <c r="N603" s="41"/>
       <c r="O603" s="21"/>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" s="17"/>
       <c r="B604" s="17"/>
       <c r="C604" s="19"/>
@@ -22305,7 +22305,7 @@
       <c r="N604" s="40"/>
       <c r="O604" s="20"/>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" s="17"/>
       <c r="B605" s="17"/>
       <c r="C605" s="19"/>
@@ -22322,7 +22322,7 @@
       <c r="N605" s="40"/>
       <c r="O605" s="20"/>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" s="17"/>
       <c r="B606" s="17"/>
       <c r="C606" s="19"/>
@@ -22339,7 +22339,7 @@
       <c r="N606" s="40"/>
       <c r="O606" s="20"/>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" s="17"/>
       <c r="B607" s="17"/>
       <c r="C607" s="19"/>
@@ -22356,7 +22356,7 @@
       <c r="N607" s="40"/>
       <c r="O607" s="20"/>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A608" s="17"/>
       <c r="B608" s="17"/>
       <c r="C608" s="19"/>
@@ -22373,7 +22373,7 @@
       <c r="N608" s="41"/>
       <c r="O608" s="21"/>
     </row>
-    <row r="609" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" s="17"/>
       <c r="B609" s="17"/>
       <c r="C609" s="19"/>
@@ -22390,7 +22390,7 @@
       <c r="N609" s="40"/>
       <c r="O609" s="20"/>
     </row>
-    <row r="610" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" s="17"/>
       <c r="B610" s="17"/>
       <c r="C610" s="19"/>
@@ -22407,7 +22407,7 @@
       <c r="N610" s="40"/>
       <c r="O610" s="20"/>
     </row>
-    <row r="611" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" s="17"/>
       <c r="B611" s="17"/>
       <c r="C611" s="19"/>
@@ -22424,7 +22424,7 @@
       <c r="N611" s="40"/>
       <c r="O611" s="20"/>
     </row>
-    <row r="612" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" s="17"/>
       <c r="B612" s="17"/>
       <c r="C612" s="19"/>
@@ -22441,14 +22441,14 @@
       <c r="N612" s="40"/>
       <c r="O612" s="20"/>
     </row>
-    <row r="613" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I613" s="1"/>
       <c r="J613" s="1"/>
       <c r="K613" s="1"/>
       <c r="L613" s="1"/>
       <c r="M613" s="1"/>
     </row>
-    <row r="614" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A614" s="17"/>
       <c r="B614" s="17"/>
       <c r="C614" s="19"/>
@@ -22465,7 +22465,7 @@
       <c r="N614" s="41"/>
       <c r="O614" s="21"/>
     </row>
-    <row r="615" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A615" s="17"/>
       <c r="B615" s="17"/>
       <c r="C615" s="19"/>
@@ -22482,7 +22482,7 @@
       <c r="N615" s="40"/>
       <c r="O615" s="20"/>
     </row>
-    <row r="616" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" s="17"/>
       <c r="B616" s="17"/>
       <c r="C616" s="19"/>
@@ -22499,7 +22499,7 @@
       <c r="N616" s="40"/>
       <c r="O616" s="20"/>
     </row>
-    <row r="617" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" s="17"/>
       <c r="B617" s="17"/>
       <c r="C617" s="19"/>
@@ -22516,7 +22516,7 @@
       <c r="N617" s="40"/>
       <c r="O617" s="20"/>
     </row>
-    <row r="618" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A618" s="17"/>
       <c r="B618" s="17"/>
       <c r="C618" s="19"/>
@@ -22533,7 +22533,7 @@
       <c r="N618" s="40"/>
       <c r="O618" s="20"/>
     </row>
-    <row r="619" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A619" s="17"/>
       <c r="B619" s="17"/>
       <c r="C619" s="19"/>
@@ -22550,7 +22550,7 @@
       <c r="N619" s="40"/>
       <c r="O619" s="20"/>
     </row>
-    <row r="620" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A620" s="17"/>
       <c r="B620" s="17"/>
       <c r="C620" s="19"/>
@@ -22567,7 +22567,7 @@
       <c r="N620" s="41"/>
       <c r="O620" s="21"/>
     </row>
-    <row r="621" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" s="17"/>
       <c r="B621" s="17"/>
       <c r="C621" s="19"/>
@@ -22584,7 +22584,7 @@
       <c r="N621" s="40"/>
       <c r="O621" s="20"/>
     </row>
-    <row r="622" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" s="17"/>
       <c r="B622" s="17"/>
       <c r="C622" s="19"/>
@@ -22601,7 +22601,7 @@
       <c r="N622" s="40"/>
       <c r="O622" s="20"/>
     </row>
-    <row r="623" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A623" s="17"/>
       <c r="B623" s="17"/>
       <c r="C623" s="19"/>
@@ -22618,7 +22618,7 @@
       <c r="N623" s="40"/>
       <c r="O623" s="20"/>
     </row>
-    <row r="624" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" s="17"/>
       <c r="B624" s="17"/>
       <c r="C624" s="19"/>
@@ -22635,7 +22635,7 @@
       <c r="N624" s="40"/>
       <c r="O624" s="20"/>
     </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" s="17"/>
       <c r="B625" s="17"/>
       <c r="C625" s="19"/>
@@ -22652,7 +22652,7 @@
       <c r="N625" s="40"/>
       <c r="O625" s="20"/>
     </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" s="17"/>
       <c r="B626" s="17"/>
       <c r="C626" s="19"/>
@@ -22669,7 +22669,7 @@
       <c r="N626" s="40"/>
       <c r="O626" s="20"/>
     </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" s="17"/>
       <c r="B627" s="17"/>
       <c r="C627" s="19"/>
@@ -22686,7 +22686,7 @@
       <c r="N627" s="40"/>
       <c r="O627" s="20"/>
     </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" s="17"/>
       <c r="B628" s="17"/>
       <c r="C628" s="19"/>
@@ -22703,7 +22703,7 @@
       <c r="N628" s="40"/>
       <c r="O628" s="20"/>
     </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" s="17"/>
       <c r="B629" s="17"/>
       <c r="C629" s="19"/>
@@ -22720,7 +22720,7 @@
       <c r="N629" s="40"/>
       <c r="O629" s="20"/>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" s="17"/>
       <c r="B630" s="17"/>
       <c r="C630" s="19"/>
@@ -22737,7 +22737,7 @@
       <c r="N630" s="40"/>
       <c r="O630" s="20"/>
     </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" s="17"/>
       <c r="B631" s="17"/>
       <c r="C631" s="19"/>
@@ -22754,7 +22754,7 @@
       <c r="N631" s="40"/>
       <c r="O631" s="20"/>
     </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" s="17"/>
       <c r="B632" s="17"/>
       <c r="C632" s="19"/>
@@ -22771,7 +22771,7 @@
       <c r="N632" s="40"/>
       <c r="O632" s="20"/>
     </row>
-    <row r="633" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A633" s="17"/>
       <c r="B633" s="17"/>
       <c r="C633" s="19"/>
@@ -22788,7 +22788,7 @@
       <c r="N633" s="40"/>
       <c r="O633" s="20"/>
     </row>
-    <row r="634" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" s="17"/>
       <c r="B634" s="17"/>
       <c r="C634" s="19"/>
@@ -22805,7 +22805,7 @@
       <c r="N634" s="40"/>
       <c r="O634" s="20"/>
     </row>
-    <row r="635" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" s="17"/>
       <c r="B635" s="17"/>
       <c r="C635" s="19"/>
@@ -22822,7 +22822,7 @@
       <c r="N635" s="40"/>
       <c r="O635" s="20"/>
     </row>
-    <row r="636" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" s="17"/>
       <c r="B636" s="17"/>
       <c r="C636" s="19"/>
@@ -22839,7 +22839,7 @@
       <c r="N636" s="40"/>
       <c r="O636" s="20"/>
     </row>
-    <row r="637" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A637" s="17"/>
       <c r="B637" s="17"/>
       <c r="C637" s="19"/>
@@ -22856,7 +22856,7 @@
       <c r="N637" s="40"/>
       <c r="O637" s="20"/>
     </row>
-    <row r="638" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" s="17"/>
       <c r="B638" s="17"/>
       <c r="C638" s="19"/>
@@ -22873,7 +22873,7 @@
       <c r="N638" s="40"/>
       <c r="O638" s="20"/>
     </row>
-    <row r="639" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" s="17"/>
       <c r="B639" s="17"/>
       <c r="C639" s="19"/>
@@ -22890,7 +22890,7 @@
       <c r="N639" s="40"/>
       <c r="O639" s="20"/>
     </row>
-    <row r="640" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A640" s="17"/>
       <c r="B640" s="17"/>
       <c r="C640" s="19"/>
@@ -22907,7 +22907,7 @@
       <c r="N640" s="40"/>
       <c r="O640" s="20"/>
     </row>
-    <row r="641" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" s="17"/>
       <c r="B641" s="17"/>
       <c r="C641" s="19"/>
@@ -22924,7 +22924,7 @@
       <c r="N641" s="40"/>
       <c r="O641" s="20"/>
     </row>
-    <row r="642" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" s="17"/>
       <c r="B642" s="17"/>
       <c r="C642" s="19"/>
@@ -22941,7 +22941,7 @@
       <c r="N642" s="40"/>
       <c r="O642" s="20"/>
     </row>
-    <row r="643" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A643" s="17"/>
       <c r="B643" s="17"/>
       <c r="C643" s="19"/>
@@ -22958,7 +22958,7 @@
       <c r="N643" s="40"/>
       <c r="O643" s="20"/>
     </row>
-    <row r="644" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A644" s="17"/>
       <c r="B644" s="17"/>
       <c r="C644" s="19"/>
@@ -22975,7 +22975,7 @@
       <c r="N644" s="41"/>
       <c r="O644" s="21"/>
     </row>
-    <row r="645" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A645" s="17"/>
       <c r="B645" s="17"/>
       <c r="C645" s="19"/>
@@ -22992,7 +22992,7 @@
       <c r="N645" s="40"/>
       <c r="O645" s="20"/>
     </row>
-    <row r="646" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A646" s="17"/>
       <c r="B646" s="17"/>
       <c r="C646" s="19"/>
@@ -23009,7 +23009,7 @@
       <c r="N646" s="40"/>
       <c r="O646" s="20"/>
     </row>
-    <row r="647" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A647" s="17"/>
       <c r="B647" s="17"/>
       <c r="C647" s="19"/>
@@ -23026,7 +23026,7 @@
       <c r="N647" s="40"/>
       <c r="O647" s="20"/>
     </row>
-    <row r="648" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A648" s="17"/>
       <c r="B648" s="17"/>
       <c r="C648" s="19"/>
@@ -23043,7 +23043,7 @@
       <c r="N648" s="40"/>
       <c r="O648" s="20"/>
     </row>
-    <row r="649" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A649" s="17"/>
       <c r="B649" s="17"/>
       <c r="C649" s="19"/>
@@ -23060,7 +23060,7 @@
       <c r="N649" s="40"/>
       <c r="O649" s="20"/>
     </row>
-    <row r="650" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A650" s="17"/>
       <c r="B650" s="17"/>
       <c r="C650" s="19"/>
@@ -23077,7 +23077,7 @@
       <c r="N650" s="40"/>
       <c r="O650" s="20"/>
     </row>
-    <row r="651" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A651" s="17"/>
       <c r="B651" s="17"/>
       <c r="C651" s="19"/>
@@ -23094,7 +23094,7 @@
       <c r="N651" s="40"/>
       <c r="O651" s="20"/>
     </row>
-    <row r="652" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A652" s="17"/>
       <c r="B652" s="17"/>
       <c r="C652" s="19"/>
@@ -23111,7 +23111,7 @@
       <c r="N652" s="40"/>
       <c r="O652" s="20"/>
     </row>
-    <row r="653" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A653" s="17"/>
       <c r="B653" s="17"/>
       <c r="C653" s="19"/>
@@ -23128,7 +23128,7 @@
       <c r="N653" s="41"/>
       <c r="O653" s="21"/>
     </row>
-    <row r="654" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A654" s="17"/>
       <c r="B654" s="17"/>
       <c r="C654" s="19"/>
@@ -23145,7 +23145,7 @@
       <c r="N654" s="40"/>
       <c r="O654" s="20"/>
     </row>
-    <row r="655" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A655" s="17"/>
       <c r="B655" s="17"/>
       <c r="C655" s="19"/>
@@ -23162,14 +23162,14 @@
       <c r="N655" s="40"/>
       <c r="O655" s="20"/>
     </row>
-    <row r="656" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I656" s="1"/>
       <c r="J656" s="1"/>
       <c r="K656" s="1"/>
       <c r="L656" s="1"/>
       <c r="M656" s="1"/>
     </row>
-    <row r="657" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A657" s="17"/>
       <c r="B657" s="17"/>
       <c r="C657" s="19"/>
@@ -23186,7 +23186,7 @@
       <c r="N657" s="40"/>
       <c r="O657" s="20"/>
     </row>
-    <row r="658" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A658" s="17"/>
       <c r="B658" s="17"/>
       <c r="C658" s="19"/>
@@ -23203,7 +23203,7 @@
       <c r="N658" s="40"/>
       <c r="O658" s="20"/>
     </row>
-    <row r="659" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A659" s="17"/>
       <c r="B659" s="17"/>
       <c r="C659" s="19"/>
@@ -23220,7 +23220,7 @@
       <c r="N659" s="40"/>
       <c r="O659" s="20"/>
     </row>
-    <row r="660" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A660" s="17"/>
       <c r="B660" s="17"/>
       <c r="C660" s="19"/>
@@ -23237,7 +23237,7 @@
       <c r="N660" s="40"/>
       <c r="O660" s="20"/>
     </row>
-    <row r="661" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A661" s="17"/>
       <c r="B661" s="17"/>
       <c r="C661" s="19"/>
@@ -23254,7 +23254,7 @@
       <c r="N661" s="40"/>
       <c r="O661" s="20"/>
     </row>
-    <row r="662" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A662" s="17"/>
       <c r="B662" s="17"/>
       <c r="C662" s="19"/>
@@ -23271,7 +23271,7 @@
       <c r="N662" s="41"/>
       <c r="O662" s="21"/>
     </row>
-    <row r="663" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A663" s="17"/>
       <c r="B663" s="17"/>
       <c r="C663" s="19"/>
@@ -23288,7 +23288,7 @@
       <c r="N663" s="40"/>
       <c r="O663" s="20"/>
     </row>
-    <row r="664" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A664" s="17"/>
       <c r="B664" s="17"/>
       <c r="C664" s="19"/>
@@ -23305,7 +23305,7 @@
       <c r="N664" s="40"/>
       <c r="O664" s="20"/>
     </row>
-    <row r="665" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A665" s="17"/>
       <c r="B665" s="17"/>
       <c r="C665" s="19"/>
@@ -23322,7 +23322,7 @@
       <c r="N665" s="40"/>
       <c r="O665" s="20"/>
     </row>
-    <row r="666" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A666" s="17"/>
       <c r="B666" s="17"/>
       <c r="C666" s="19"/>
@@ -23339,7 +23339,7 @@
       <c r="N666" s="40"/>
       <c r="O666" s="20"/>
     </row>
-    <row r="667" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A667" s="17"/>
       <c r="B667" s="17"/>
       <c r="C667" s="19"/>
@@ -23356,7 +23356,7 @@
       <c r="N667" s="40"/>
       <c r="O667" s="20"/>
     </row>
-    <row r="668" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A668" s="17"/>
       <c r="B668" s="17"/>
       <c r="C668" s="19"/>
@@ -23373,7 +23373,7 @@
       <c r="N668" s="41"/>
       <c r="O668" s="21"/>
     </row>
-    <row r="669" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A669" s="17"/>
       <c r="B669" s="17"/>
       <c r="C669" s="19"/>
@@ -23390,7 +23390,7 @@
       <c r="N669" s="41"/>
       <c r="O669" s="21"/>
     </row>
-    <row r="670" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A670" s="17"/>
       <c r="B670" s="17"/>
       <c r="C670" s="19"/>
@@ -23407,7 +23407,7 @@
       <c r="N670" s="40"/>
       <c r="O670" s="20"/>
     </row>
-    <row r="671" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A671" s="17"/>
       <c r="B671" s="17"/>
       <c r="C671" s="19"/>
@@ -23424,7 +23424,7 @@
       <c r="N671" s="40"/>
       <c r="O671" s="20"/>
     </row>
-    <row r="672" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A672" s="17"/>
       <c r="B672" s="17"/>
       <c r="C672" s="19"/>
@@ -23441,7 +23441,7 @@
       <c r="N672" s="40"/>
       <c r="O672" s="21"/>
     </row>
-    <row r="673" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A673" s="17"/>
       <c r="B673" s="17"/>
       <c r="C673" s="19"/>
@@ -23458,7 +23458,7 @@
       <c r="N673" s="40"/>
       <c r="O673" s="20"/>
     </row>
-    <row r="674" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A674" s="17"/>
       <c r="B674" s="17"/>
       <c r="C674" s="19"/>
@@ -23475,7 +23475,7 @@
       <c r="N674" s="40"/>
       <c r="O674" s="20"/>
     </row>
-    <row r="675" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A675" s="17"/>
       <c r="B675" s="17"/>
       <c r="C675" s="19"/>
@@ -23492,7 +23492,7 @@
       <c r="N675" s="40"/>
       <c r="O675" s="20"/>
     </row>
-    <row r="676" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A676" s="17"/>
       <c r="B676" s="17"/>
       <c r="C676" s="19"/>
@@ -23509,7 +23509,7 @@
       <c r="N676" s="40"/>
       <c r="O676" s="20"/>
     </row>
-    <row r="677" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A677" s="17"/>
       <c r="B677" s="17"/>
       <c r="C677" s="19"/>
@@ -23526,7 +23526,7 @@
       <c r="N677" s="40"/>
       <c r="O677" s="20"/>
     </row>
-    <row r="678" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A678" s="17"/>
       <c r="B678" s="17"/>
       <c r="C678" s="19"/>
@@ -23543,7 +23543,7 @@
       <c r="N678" s="40"/>
       <c r="O678" s="20"/>
     </row>
-    <row r="679" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A679" s="17"/>
       <c r="B679" s="17"/>
       <c r="C679" s="19"/>
@@ -23560,7 +23560,7 @@
       <c r="N679" s="41"/>
       <c r="O679" s="21"/>
     </row>
-    <row r="680" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A680" s="17"/>
       <c r="B680" s="17"/>
       <c r="C680" s="19"/>
@@ -23577,7 +23577,7 @@
       <c r="N680" s="40"/>
       <c r="O680" s="20"/>
     </row>
-    <row r="681" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A681" s="17"/>
       <c r="B681" s="17"/>
       <c r="C681" s="19"/>
@@ -23594,7 +23594,7 @@
       <c r="N681" s="40"/>
       <c r="O681" s="20"/>
     </row>
-    <row r="682" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A682" s="17"/>
       <c r="B682" s="17"/>
       <c r="C682" s="19"/>
@@ -23611,7 +23611,7 @@
       <c r="N682" s="40"/>
       <c r="O682" s="20"/>
     </row>
-    <row r="683" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A683" s="17"/>
       <c r="B683" s="17"/>
       <c r="C683" s="19"/>
@@ -23628,7 +23628,7 @@
       <c r="N683" s="40"/>
       <c r="O683" s="20"/>
     </row>
-    <row r="684" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A684" s="17"/>
       <c r="B684" s="17"/>
       <c r="C684" s="19"/>
@@ -23645,7 +23645,7 @@
       <c r="N684" s="40"/>
       <c r="O684" s="20"/>
     </row>
-    <row r="685" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A685" s="17"/>
       <c r="B685" s="17"/>
       <c r="C685" s="19"/>
@@ -23662,7 +23662,7 @@
       <c r="N685" s="40"/>
       <c r="O685" s="20"/>
     </row>
-    <row r="686" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A686" s="17"/>
       <c r="B686" s="17"/>
       <c r="C686" s="19"/>
@@ -23679,7 +23679,7 @@
       <c r="N686" s="41"/>
       <c r="O686" s="21"/>
     </row>
-    <row r="687" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A687" s="17"/>
       <c r="B687" s="17"/>
       <c r="C687" s="19"/>
@@ -23696,7 +23696,7 @@
       <c r="N687" s="40"/>
       <c r="O687" s="20"/>
     </row>
-    <row r="688" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A688" s="17"/>
       <c r="B688" s="17"/>
       <c r="C688" s="19"/>
@@ -23713,7 +23713,7 @@
       <c r="N688" s="40"/>
       <c r="O688" s="20"/>
     </row>
-    <row r="689" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A689" s="17"/>
       <c r="B689" s="17"/>
       <c r="C689" s="19"/>
@@ -23730,7 +23730,7 @@
       <c r="N689" s="40"/>
       <c r="O689" s="20"/>
     </row>
-    <row r="690" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A690" s="17"/>
       <c r="B690" s="17"/>
       <c r="C690" s="19"/>
@@ -23747,7 +23747,7 @@
       <c r="N690" s="40"/>
       <c r="O690" s="20"/>
     </row>
-    <row r="691" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A691" s="17"/>
       <c r="B691" s="17"/>
       <c r="C691" s="19"/>
@@ -23764,7 +23764,7 @@
       <c r="N691" s="40"/>
       <c r="O691" s="20"/>
     </row>
-    <row r="692" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A692" s="17"/>
       <c r="B692" s="17"/>
       <c r="C692" s="19"/>
@@ -23781,7 +23781,7 @@
       <c r="N692" s="41"/>
       <c r="O692" s="21"/>
     </row>
-    <row r="693" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A693" s="17"/>
       <c r="B693" s="17"/>
       <c r="C693" s="19"/>
@@ -23798,7 +23798,7 @@
       <c r="N693" s="40"/>
       <c r="O693" s="20"/>
     </row>
-    <row r="694" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A694" s="17"/>
       <c r="B694" s="17"/>
       <c r="C694" s="19"/>
@@ -23815,7 +23815,7 @@
       <c r="N694" s="40"/>
       <c r="O694" s="20"/>
     </row>
-    <row r="695" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A695" s="17"/>
       <c r="B695" s="17"/>
       <c r="C695" s="19"/>
@@ -23832,7 +23832,7 @@
       <c r="N695" s="40"/>
       <c r="O695" s="20"/>
     </row>
-    <row r="696" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A696" s="17"/>
       <c r="B696" s="17"/>
       <c r="C696" s="19"/>
@@ -23849,7 +23849,7 @@
       <c r="N696" s="41"/>
       <c r="O696" s="21"/>
     </row>
-    <row r="697" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A697" s="17"/>
       <c r="B697" s="17"/>
       <c r="C697" s="19"/>
@@ -23866,7 +23866,7 @@
       <c r="N697" s="40"/>
       <c r="O697" s="20"/>
     </row>
-    <row r="698" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A698" s="17"/>
       <c r="B698" s="17"/>
       <c r="C698" s="19"/>
@@ -23883,7 +23883,7 @@
       <c r="N698" s="40"/>
       <c r="O698" s="20"/>
     </row>
-    <row r="699" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A699" s="17"/>
       <c r="B699" s="17"/>
       <c r="C699" s="19"/>
@@ -23900,7 +23900,7 @@
       <c r="N699" s="40"/>
       <c r="O699" s="20"/>
     </row>
-    <row r="700" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A700" s="17"/>
       <c r="B700" s="17"/>
       <c r="C700" s="19"/>
@@ -23917,7 +23917,7 @@
       <c r="N700" s="40"/>
       <c r="O700" s="20"/>
     </row>
-    <row r="701" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A701" s="17"/>
       <c r="B701" s="17"/>
       <c r="C701" s="19"/>
@@ -23934,7 +23934,7 @@
       <c r="N701" s="40"/>
       <c r="O701" s="20"/>
     </row>
-    <row r="702" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A702" s="17"/>
       <c r="B702" s="17"/>
       <c r="C702" s="19"/>
@@ -23951,7 +23951,7 @@
       <c r="N702" s="41"/>
       <c r="O702" s="21"/>
     </row>
-    <row r="703" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A703" s="17"/>
       <c r="B703" s="17"/>
       <c r="C703" s="19"/>
@@ -23968,7 +23968,7 @@
       <c r="N703" s="40"/>
       <c r="O703" s="20"/>
     </row>
-    <row r="704" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A704" s="17"/>
       <c r="B704" s="17"/>
       <c r="C704" s="19"/>
@@ -23985,7 +23985,7 @@
       <c r="N704" s="40"/>
       <c r="O704" s="20"/>
     </row>
-    <row r="705" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A705" s="17"/>
       <c r="B705" s="17"/>
       <c r="C705" s="19"/>
@@ -24002,7 +24002,7 @@
       <c r="N705" s="40"/>
       <c r="O705" s="20"/>
     </row>
-    <row r="706" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A706" s="17"/>
       <c r="B706" s="17"/>
       <c r="C706" s="19"/>
@@ -24019,7 +24019,7 @@
       <c r="N706" s="40"/>
       <c r="O706" s="20"/>
     </row>
-    <row r="707" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A707" s="17"/>
       <c r="B707" s="17"/>
       <c r="C707" s="19"/>
@@ -24036,7 +24036,7 @@
       <c r="N707" s="40"/>
       <c r="O707" s="20"/>
     </row>
-    <row r="708" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A708" s="17"/>
       <c r="B708" s="17"/>
       <c r="C708" s="19"/>
@@ -24053,7 +24053,7 @@
       <c r="N708" s="40"/>
       <c r="O708" s="20"/>
     </row>
-    <row r="709" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A709" s="17"/>
       <c r="B709" s="17"/>
       <c r="C709" s="19"/>
@@ -24070,7 +24070,7 @@
       <c r="N709" s="41"/>
       <c r="O709" s="21"/>
     </row>
-    <row r="710" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A710" s="17"/>
       <c r="B710" s="17"/>
       <c r="C710" s="19"/>
@@ -24087,7 +24087,7 @@
       <c r="N710" s="40"/>
       <c r="O710" s="20"/>
     </row>
-    <row r="711" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A711" s="17"/>
       <c r="B711" s="17"/>
       <c r="C711" s="19"/>
@@ -24104,7 +24104,7 @@
       <c r="N711" s="40"/>
       <c r="O711" s="20"/>
     </row>
-    <row r="712" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A712" s="17"/>
       <c r="B712" s="17"/>
       <c r="C712" s="19"/>
@@ -24121,7 +24121,7 @@
       <c r="N712" s="40"/>
       <c r="O712" s="20"/>
     </row>
-    <row r="713" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A713" s="17"/>
       <c r="B713" s="17"/>
       <c r="C713" s="19"/>
@@ -24138,7 +24138,7 @@
       <c r="N713" s="40"/>
       <c r="O713" s="20"/>
     </row>
-    <row r="714" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A714" s="17"/>
       <c r="B714" s="17"/>
       <c r="C714" s="19"/>
@@ -24155,7 +24155,7 @@
       <c r="N714" s="40"/>
       <c r="O714" s="20"/>
     </row>
-    <row r="715" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A715" s="17"/>
       <c r="B715" s="17"/>
       <c r="C715" s="19"/>
@@ -24172,7 +24172,7 @@
       <c r="N715" s="40"/>
       <c r="O715" s="20"/>
     </row>
-    <row r="716" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A716" s="17"/>
       <c r="B716" s="17"/>
       <c r="C716" s="19"/>
@@ -24189,7 +24189,7 @@
       <c r="N716" s="41"/>
       <c r="O716" s="21"/>
     </row>
-    <row r="717" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A717" s="17"/>
       <c r="B717" s="17"/>
       <c r="C717" s="19"/>
@@ -24206,7 +24206,7 @@
       <c r="N717" s="40"/>
       <c r="O717" s="20"/>
     </row>
-    <row r="718" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A718" s="17"/>
       <c r="B718" s="17"/>
       <c r="C718" s="19"/>
@@ -24223,7 +24223,7 @@
       <c r="N718" s="40"/>
       <c r="O718" s="20"/>
     </row>
-    <row r="719" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A719" s="17"/>
       <c r="B719" s="17"/>
       <c r="C719" s="19"/>
@@ -24240,7 +24240,7 @@
       <c r="N719" s="40"/>
       <c r="O719" s="20"/>
     </row>
-    <row r="720" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A720" s="17"/>
       <c r="B720" s="17"/>
       <c r="C720" s="19"/>
@@ -24257,7 +24257,7 @@
       <c r="N720" s="40"/>
       <c r="O720" s="20"/>
     </row>
-    <row r="721" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A721" s="17"/>
       <c r="B721" s="17"/>
       <c r="C721" s="19"/>
@@ -24274,7 +24274,7 @@
       <c r="N721" s="40"/>
       <c r="O721" s="20"/>
     </row>
-    <row r="722" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A722" s="17"/>
       <c r="B722" s="17"/>
       <c r="C722" s="19"/>
@@ -24291,7 +24291,7 @@
       <c r="N722" s="40"/>
       <c r="O722" s="20"/>
     </row>
-    <row r="723" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A723" s="17"/>
       <c r="B723" s="17"/>
       <c r="C723" s="19"/>
@@ -24308,7 +24308,7 @@
       <c r="N723" s="41"/>
       <c r="O723" s="21"/>
     </row>
-    <row r="724" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A724" s="17"/>
       <c r="B724" s="17"/>
       <c r="C724" s="19"/>
@@ -24325,7 +24325,7 @@
       <c r="N724" s="40"/>
       <c r="O724" s="20"/>
     </row>
-    <row r="725" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A725" s="17"/>
       <c r="B725" s="17"/>
       <c r="C725" s="19"/>
@@ -24342,7 +24342,7 @@
       <c r="N725" s="40"/>
       <c r="O725" s="20"/>
     </row>
-    <row r="726" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A726" s="17"/>
       <c r="B726" s="17"/>
       <c r="C726" s="19"/>
@@ -24359,7 +24359,7 @@
       <c r="N726" s="40"/>
       <c r="O726" s="20"/>
     </row>
-    <row r="727" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A727" s="17"/>
       <c r="B727" s="17"/>
       <c r="C727" s="19"/>
@@ -24376,7 +24376,7 @@
       <c r="N727" s="40"/>
       <c r="O727" s="20"/>
     </row>
-    <row r="728" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A728" s="17"/>
       <c r="B728" s="17"/>
       <c r="C728" s="19"/>
@@ -24393,7 +24393,7 @@
       <c r="N728" s="40"/>
       <c r="O728" s="20"/>
     </row>
-    <row r="729" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A729" s="17"/>
       <c r="B729" s="17"/>
       <c r="C729" s="19"/>
@@ -24410,7 +24410,7 @@
       <c r="N729" s="41"/>
       <c r="O729" s="21"/>
     </row>
-    <row r="730" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A730" s="17"/>
       <c r="B730" s="17"/>
       <c r="C730" s="19"/>
@@ -24427,7 +24427,7 @@
       <c r="N730" s="40"/>
       <c r="O730" s="20"/>
     </row>
-    <row r="731" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A731" s="17"/>
       <c r="B731" s="17"/>
       <c r="C731" s="19"/>
@@ -24444,7 +24444,7 @@
       <c r="N731" s="40"/>
       <c r="O731" s="20"/>
     </row>
-    <row r="732" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A732" s="17"/>
       <c r="B732" s="17"/>
       <c r="C732" s="19"/>
@@ -24461,7 +24461,7 @@
       <c r="N732" s="40"/>
       <c r="O732" s="20"/>
     </row>
-    <row r="733" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A733" s="17"/>
       <c r="B733" s="17"/>
       <c r="C733" s="19"/>
@@ -24478,7 +24478,7 @@
       <c r="N733" s="40"/>
       <c r="O733" s="20"/>
     </row>
-    <row r="734" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A734" s="17"/>
       <c r="B734" s="17"/>
       <c r="C734" s="19"/>
@@ -24495,7 +24495,7 @@
       <c r="N734" s="40"/>
       <c r="O734" s="20"/>
     </row>
-    <row r="735" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A735" s="17"/>
       <c r="B735" s="17"/>
       <c r="C735" s="19"/>
@@ -24512,7 +24512,7 @@
       <c r="N735" s="41"/>
       <c r="O735" s="21"/>
     </row>
-    <row r="736" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A736" s="17"/>
       <c r="B736" s="17"/>
       <c r="C736" s="19"/>
@@ -24529,7 +24529,7 @@
       <c r="N736" s="40"/>
       <c r="O736" s="20"/>
     </row>
-    <row r="737" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A737" s="17"/>
       <c r="B737" s="17"/>
       <c r="C737" s="19"/>
@@ -24546,7 +24546,7 @@
       <c r="N737" s="40"/>
       <c r="O737" s="20"/>
     </row>
-    <row r="738" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A738" s="17"/>
       <c r="B738" s="17"/>
       <c r="C738" s="19"/>
@@ -24563,7 +24563,7 @@
       <c r="N738" s="40"/>
       <c r="O738" s="20"/>
     </row>
-    <row r="739" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A739" s="17"/>
       <c r="B739" s="17"/>
       <c r="C739" s="19"/>
@@ -24580,7 +24580,7 @@
       <c r="N739" s="40"/>
       <c r="O739" s="20"/>
     </row>
-    <row r="740" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A740" s="17"/>
       <c r="B740" s="17"/>
       <c r="C740" s="19"/>
@@ -24597,7 +24597,7 @@
       <c r="N740" s="41"/>
       <c r="O740" s="21"/>
     </row>
-    <row r="741" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A741" s="17"/>
       <c r="B741" s="17"/>
       <c r="C741" s="19"/>
@@ -24614,7 +24614,7 @@
       <c r="N741" s="40"/>
       <c r="O741" s="20"/>
     </row>
-    <row r="742" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A742" s="17"/>
       <c r="B742" s="17"/>
       <c r="C742" s="19"/>
@@ -24631,7 +24631,7 @@
       <c r="N742" s="41"/>
       <c r="O742" s="21"/>
     </row>
-    <row r="743" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A743" s="17"/>
       <c r="B743" s="17"/>
       <c r="C743" s="19"/>
@@ -24648,7 +24648,7 @@
       <c r="N743" s="40"/>
       <c r="O743" s="20"/>
     </row>
-    <row r="744" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A744" s="17"/>
       <c r="B744" s="17"/>
       <c r="C744" s="19"/>
@@ -24665,7 +24665,7 @@
       <c r="N744" s="41"/>
       <c r="O744" s="21"/>
     </row>
-    <row r="745" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A745" s="17"/>
       <c r="B745" s="17"/>
       <c r="C745" s="19"/>
@@ -24682,7 +24682,7 @@
       <c r="N745" s="40"/>
       <c r="O745" s="20"/>
     </row>
-    <row r="746" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A746" s="17"/>
       <c r="B746" s="17"/>
       <c r="C746" s="19"/>
@@ -24699,7 +24699,7 @@
       <c r="N746" s="40"/>
       <c r="O746" s="20"/>
     </row>
-    <row r="747" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A747" s="17"/>
       <c r="B747" s="17"/>
       <c r="C747" s="19"/>
@@ -24716,7 +24716,7 @@
       <c r="N747" s="40"/>
       <c r="O747" s="20"/>
     </row>
-    <row r="748" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A748" s="17"/>
       <c r="B748" s="17"/>
       <c r="C748" s="19"/>
@@ -24733,7 +24733,7 @@
       <c r="N748" s="40"/>
       <c r="O748" s="20"/>
     </row>
-    <row r="749" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A749" s="17"/>
       <c r="B749" s="17"/>
       <c r="C749" s="19"/>
@@ -24750,7 +24750,7 @@
       <c r="N749" s="41"/>
       <c r="O749" s="21"/>
     </row>
-    <row r="750" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A750" s="17"/>
       <c r="B750" s="17"/>
       <c r="C750" s="19"/>
@@ -24767,7 +24767,7 @@
       <c r="N750" s="40"/>
       <c r="O750" s="20"/>
     </row>
-    <row r="751" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A751" s="17"/>
       <c r="B751" s="17"/>
       <c r="C751" s="19"/>
@@ -24784,7 +24784,7 @@
       <c r="N751" s="40"/>
       <c r="O751" s="20"/>
     </row>
-    <row r="752" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A752" s="17"/>
       <c r="B752" s="17"/>
       <c r="C752" s="19"/>
@@ -24801,7 +24801,7 @@
       <c r="N752" s="40"/>
       <c r="O752" s="20"/>
     </row>
-    <row r="753" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A753" s="17"/>
       <c r="B753" s="17"/>
       <c r="C753" s="19"/>
@@ -24818,7 +24818,7 @@
       <c r="N753" s="41"/>
       <c r="O753" s="21"/>
     </row>
-    <row r="754" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A754" s="17"/>
       <c r="B754" s="17"/>
       <c r="C754" s="19"/>
@@ -24835,7 +24835,7 @@
       <c r="N754" s="40"/>
       <c r="O754" s="20"/>
     </row>
-    <row r="755" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A755" s="17"/>
       <c r="B755" s="17"/>
       <c r="C755" s="19"/>
@@ -24852,7 +24852,7 @@
       <c r="N755" s="40"/>
       <c r="O755" s="20"/>
     </row>
-    <row r="756" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A756" s="17"/>
       <c r="B756" s="17"/>
       <c r="C756" s="19"/>
@@ -24869,7 +24869,7 @@
       <c r="N756" s="41"/>
       <c r="O756" s="21"/>
     </row>
-    <row r="757" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A757" s="17"/>
       <c r="B757" s="17"/>
       <c r="C757" s="19"/>
@@ -24886,7 +24886,7 @@
       <c r="N757" s="40"/>
       <c r="O757" s="20"/>
     </row>
-    <row r="758" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A758" s="17"/>
       <c r="B758" s="17"/>
       <c r="C758" s="19"/>
@@ -24903,7 +24903,7 @@
       <c r="N758" s="40"/>
       <c r="O758" s="20"/>
     </row>
-    <row r="759" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A759" s="17"/>
       <c r="B759" s="17"/>
       <c r="C759" s="19"/>
@@ -24920,7 +24920,7 @@
       <c r="N759" s="40"/>
       <c r="O759" s="20"/>
     </row>
-    <row r="760" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A760" s="17"/>
       <c r="B760" s="17"/>
       <c r="C760" s="19"/>
@@ -24937,7 +24937,7 @@
       <c r="N760" s="40"/>
       <c r="O760" s="20"/>
     </row>
-    <row r="761" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A761" s="17"/>
       <c r="B761" s="17"/>
       <c r="C761" s="19"/>
@@ -24954,7 +24954,7 @@
       <c r="N761" s="40"/>
       <c r="O761" s="20"/>
     </row>
-    <row r="762" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A762" s="17"/>
       <c r="B762" s="17"/>
       <c r="C762" s="19"/>
@@ -24971,7 +24971,7 @@
       <c r="N762" s="40"/>
       <c r="O762" s="20"/>
     </row>
-    <row r="763" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A763" s="17"/>
       <c r="B763" s="17"/>
       <c r="C763" s="19"/>
@@ -24988,7 +24988,7 @@
       <c r="N763" s="40"/>
       <c r="O763" s="20"/>
     </row>
-    <row r="764" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A764" s="17"/>
       <c r="B764" s="17"/>
       <c r="C764" s="19"/>
@@ -25005,7 +25005,7 @@
       <c r="N764" s="41"/>
       <c r="O764" s="21"/>
     </row>
-    <row r="765" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A765" s="17"/>
       <c r="B765" s="17"/>
       <c r="C765" s="19"/>
@@ -25022,7 +25022,7 @@
       <c r="N765" s="40"/>
       <c r="O765" s="20"/>
     </row>
-    <row r="766" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A766" s="17"/>
       <c r="B766" s="17"/>
       <c r="C766" s="19"/>
@@ -25039,7 +25039,7 @@
       <c r="N766" s="40"/>
       <c r="O766" s="20"/>
     </row>
-    <row r="767" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A767" s="17"/>
       <c r="B767" s="17"/>
       <c r="C767" s="19"/>
@@ -25056,7 +25056,7 @@
       <c r="N767" s="40"/>
       <c r="O767" s="20"/>
     </row>
-    <row r="768" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A768" s="17"/>
       <c r="B768" s="17"/>
       <c r="C768" s="19"/>
@@ -25073,7 +25073,7 @@
       <c r="N768" s="40"/>
       <c r="O768" s="20"/>
     </row>
-    <row r="769" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A769" s="17"/>
       <c r="B769" s="17"/>
       <c r="C769" s="19"/>
@@ -25090,7 +25090,7 @@
       <c r="N769" s="40"/>
       <c r="O769" s="20"/>
     </row>
-    <row r="770" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A770" s="17"/>
       <c r="B770" s="17"/>
       <c r="C770" s="19"/>
@@ -25107,7 +25107,7 @@
       <c r="N770" s="40"/>
       <c r="O770" s="20"/>
     </row>
-    <row r="771" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A771" s="17"/>
       <c r="B771" s="17"/>
       <c r="C771" s="19"/>
@@ -25124,7 +25124,7 @@
       <c r="N771" s="41"/>
       <c r="O771" s="21"/>
     </row>
-    <row r="772" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A772" s="17"/>
       <c r="B772" s="17"/>
       <c r="C772" s="19"/>
@@ -25141,7 +25141,7 @@
       <c r="N772" s="40"/>
       <c r="O772" s="20"/>
     </row>
-    <row r="773" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A773" s="17"/>
       <c r="B773" s="17"/>
       <c r="C773" s="19"/>
@@ -25158,7 +25158,7 @@
       <c r="N773" s="40"/>
       <c r="O773" s="20"/>
     </row>
-    <row r="774" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A774" s="17"/>
       <c r="B774" s="17"/>
       <c r="C774" s="19"/>
@@ -25175,7 +25175,7 @@
       <c r="N774" s="40"/>
       <c r="O774" s="20"/>
     </row>
-    <row r="775" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A775" s="17"/>
       <c r="B775" s="17"/>
       <c r="C775" s="19"/>
@@ -25192,7 +25192,7 @@
       <c r="N775" s="40"/>
       <c r="O775" s="20"/>
     </row>
-    <row r="776" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A776" s="17"/>
       <c r="B776" s="17"/>
       <c r="C776" s="19"/>
@@ -25209,7 +25209,7 @@
       <c r="N776" s="40"/>
       <c r="O776" s="20"/>
     </row>
-    <row r="777" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A777" s="17"/>
       <c r="B777" s="17"/>
       <c r="C777" s="19"/>
@@ -25226,7 +25226,7 @@
       <c r="N777" s="41"/>
       <c r="O777" s="21"/>
     </row>
-    <row r="778" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A778" s="17"/>
       <c r="B778" s="17"/>
       <c r="C778" s="19"/>
@@ -25243,7 +25243,7 @@
       <c r="N778" s="40"/>
       <c r="O778" s="20"/>
     </row>
-    <row r="779" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A779" s="17"/>
       <c r="B779" s="17"/>
       <c r="C779" s="19"/>
@@ -25260,7 +25260,7 @@
       <c r="N779" s="40"/>
       <c r="O779" s="20"/>
     </row>
-    <row r="780" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A780" s="17"/>
       <c r="B780" s="17"/>
       <c r="C780" s="19"/>
@@ -25277,7 +25277,7 @@
       <c r="N780" s="40"/>
       <c r="O780" s="20"/>
     </row>
-    <row r="781" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A781" s="17"/>
       <c r="B781" s="17"/>
       <c r="C781" s="19"/>
@@ -25294,7 +25294,7 @@
       <c r="N781" s="40"/>
       <c r="O781" s="20"/>
     </row>
-    <row r="782" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A782" s="17"/>
       <c r="B782" s="17"/>
       <c r="C782" s="19"/>
@@ -25311,7 +25311,7 @@
       <c r="N782" s="40"/>
       <c r="O782" s="20"/>
     </row>
-    <row r="783" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A783" s="17"/>
       <c r="B783" s="17"/>
       <c r="C783" s="19"/>
@@ -25328,7 +25328,7 @@
       <c r="N783" s="40"/>
       <c r="O783" s="20"/>
     </row>
-    <row r="784" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A784" s="17"/>
       <c r="B784" s="17"/>
       <c r="C784" s="19"/>
@@ -25345,7 +25345,7 @@
       <c r="N784" s="40"/>
       <c r="O784" s="20"/>
     </row>
-    <row r="785" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A785" s="17"/>
       <c r="B785" s="17"/>
       <c r="C785" s="19"/>
@@ -25362,7 +25362,7 @@
       <c r="N785" s="40"/>
       <c r="O785" s="20"/>
     </row>
-    <row r="786" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A786" s="17"/>
       <c r="B786" s="17"/>
       <c r="C786" s="19"/>
@@ -25379,7 +25379,7 @@
       <c r="N786" s="40"/>
       <c r="O786" s="20"/>
     </row>
-    <row r="787" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A787" s="17"/>
       <c r="B787" s="17"/>
       <c r="C787" s="19"/>
@@ -25396,7 +25396,7 @@
       <c r="N787" s="40"/>
       <c r="O787" s="20"/>
     </row>
-    <row r="788" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A788" s="17"/>
       <c r="B788" s="17"/>
       <c r="C788" s="19"/>
@@ -25413,7 +25413,7 @@
       <c r="N788" s="40"/>
       <c r="O788" s="20"/>
     </row>
-    <row r="789" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A789" s="17"/>
       <c r="B789" s="17"/>
       <c r="C789" s="19"/>
@@ -25430,7 +25430,7 @@
       <c r="N789" s="40"/>
       <c r="O789" s="20"/>
     </row>
-    <row r="790" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A790" s="17"/>
       <c r="B790" s="17"/>
       <c r="C790" s="19"/>
@@ -25447,7 +25447,7 @@
       <c r="N790" s="40"/>
       <c r="O790" s="20"/>
     </row>
-    <row r="791" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A791" s="17"/>
       <c r="B791" s="17"/>
       <c r="C791" s="19"/>
@@ -25464,7 +25464,7 @@
       <c r="N791" s="40"/>
       <c r="O791" s="20"/>
     </row>
-    <row r="792" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A792" s="17"/>
       <c r="B792" s="17"/>
       <c r="C792" s="19"/>
@@ -25481,7 +25481,7 @@
       <c r="N792" s="40"/>
       <c r="O792" s="20"/>
     </row>
-    <row r="793" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A793" s="17"/>
       <c r="B793" s="17"/>
       <c r="C793" s="19"/>
@@ -25498,7 +25498,7 @@
       <c r="N793" s="40"/>
       <c r="O793" s="20"/>
     </row>
-    <row r="794" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A794" s="17"/>
       <c r="B794" s="17"/>
       <c r="C794" s="19"/>
@@ -25515,7 +25515,7 @@
       <c r="N794" s="40"/>
       <c r="O794" s="20"/>
     </row>
-    <row r="795" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A795" s="17"/>
       <c r="B795" s="17"/>
       <c r="C795" s="19"/>
@@ -25532,7 +25532,7 @@
       <c r="N795" s="40"/>
       <c r="O795" s="20"/>
     </row>
-    <row r="796" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A796" s="17"/>
       <c r="B796" s="17"/>
       <c r="C796" s="19"/>
@@ -25549,7 +25549,7 @@
       <c r="N796" s="40"/>
       <c r="O796" s="20"/>
     </row>
-    <row r="797" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A797" s="17"/>
       <c r="B797" s="17"/>
       <c r="C797" s="19"/>
@@ -25566,7 +25566,7 @@
       <c r="N797" s="40"/>
       <c r="O797" s="20"/>
     </row>
-    <row r="798" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A798" s="17"/>
       <c r="B798" s="17"/>
       <c r="C798" s="19"/>
@@ -25583,7 +25583,7 @@
       <c r="N798" s="40"/>
       <c r="O798" s="20"/>
     </row>
-    <row r="799" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A799" s="17"/>
       <c r="B799" s="17"/>
       <c r="C799" s="19"/>
@@ -25600,7 +25600,7 @@
       <c r="N799" s="40"/>
       <c r="O799" s="20"/>
     </row>
-    <row r="800" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A800" s="17"/>
       <c r="B800" s="17"/>
       <c r="C800" s="19"/>
@@ -25617,7 +25617,7 @@
       <c r="N800" s="40"/>
       <c r="O800" s="20"/>
     </row>
-    <row r="801" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A801" s="17"/>
       <c r="B801" s="17"/>
       <c r="C801" s="19"/>
@@ -25634,7 +25634,7 @@
       <c r="N801" s="40"/>
       <c r="O801" s="20"/>
     </row>
-    <row r="802" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A802" s="17"/>
       <c r="B802" s="17"/>
       <c r="C802" s="19"/>
@@ -25651,7 +25651,7 @@
       <c r="N802" s="40"/>
       <c r="O802" s="20"/>
     </row>
-    <row r="803" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A803" s="17"/>
       <c r="B803" s="17"/>
       <c r="C803" s="19"/>
@@ -25668,7 +25668,7 @@
       <c r="N803" s="40"/>
       <c r="O803" s="20"/>
     </row>
-    <row r="804" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A804" s="17"/>
       <c r="B804" s="17"/>
       <c r="C804" s="19"/>
@@ -25685,7 +25685,7 @@
       <c r="N804" s="40"/>
       <c r="O804" s="20"/>
     </row>
-    <row r="805" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A805" s="17"/>
       <c r="B805" s="17"/>
       <c r="C805" s="19"/>
@@ -25702,7 +25702,7 @@
       <c r="N805" s="40"/>
       <c r="O805" s="20"/>
     </row>
-    <row r="806" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A806" s="17"/>
       <c r="B806" s="17"/>
       <c r="C806" s="19"/>
@@ -25719,7 +25719,7 @@
       <c r="N806" s="40"/>
       <c r="O806" s="20"/>
     </row>
-    <row r="807" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A807" s="17"/>
       <c r="B807" s="17"/>
       <c r="C807" s="19"/>
@@ -25736,7 +25736,7 @@
       <c r="N807" s="40"/>
       <c r="O807" s="20"/>
     </row>
-    <row r="808" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A808" s="17"/>
       <c r="B808" s="17"/>
       <c r="C808" s="19"/>
@@ -25753,7 +25753,7 @@
       <c r="N808" s="40"/>
       <c r="O808" s="20"/>
     </row>
-    <row r="809" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A809" s="17"/>
       <c r="B809" s="17"/>
       <c r="C809" s="19"/>
@@ -25770,7 +25770,7 @@
       <c r="N809" s="40"/>
       <c r="O809" s="20"/>
     </row>
-    <row r="810" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A810" s="17"/>
       <c r="B810" s="17"/>
       <c r="C810" s="19"/>
@@ -25787,7 +25787,7 @@
       <c r="N810" s="40"/>
       <c r="O810" s="20"/>
     </row>
-    <row r="811" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A811" s="17"/>
       <c r="B811" s="17"/>
       <c r="C811" s="19"/>
@@ -25804,7 +25804,7 @@
       <c r="N811" s="40"/>
       <c r="O811" s="20"/>
     </row>
-    <row r="812" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A812" s="17"/>
       <c r="B812" s="17"/>
       <c r="C812" s="19"/>
@@ -25821,7 +25821,7 @@
       <c r="N812" s="40"/>
       <c r="O812" s="20"/>
     </row>
-    <row r="813" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A813" s="17"/>
       <c r="B813" s="17"/>
       <c r="C813" s="19"/>
@@ -25838,7 +25838,7 @@
       <c r="N813" s="40"/>
       <c r="O813" s="20"/>
     </row>
-    <row r="814" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A814" s="17"/>
       <c r="B814" s="17"/>
       <c r="C814" s="19"/>
@@ -25855,7 +25855,7 @@
       <c r="N814" s="40"/>
       <c r="O814" s="20"/>
     </row>
-    <row r="815" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A815" s="17"/>
       <c r="B815" s="17"/>
       <c r="C815" s="19"/>
@@ -25872,7 +25872,7 @@
       <c r="N815" s="40"/>
       <c r="O815" s="20"/>
     </row>
-    <row r="816" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A816" s="17"/>
       <c r="B816" s="17"/>
       <c r="C816" s="19"/>
@@ -25889,7 +25889,7 @@
       <c r="N816" s="40"/>
       <c r="O816" s="20"/>
     </row>
-    <row r="817" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A817" s="17"/>
       <c r="B817" s="17"/>
       <c r="C817" s="19"/>
@@ -25906,7 +25906,7 @@
       <c r="N817" s="40"/>
       <c r="O817" s="20"/>
     </row>
-    <row r="818" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A818" s="17"/>
       <c r="B818" s="17"/>
       <c r="C818" s="19"/>
@@ -25923,7 +25923,7 @@
       <c r="N818" s="40"/>
       <c r="O818" s="20"/>
     </row>
-    <row r="819" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A819" s="17"/>
       <c r="B819" s="17"/>
       <c r="C819" s="19"/>
@@ -25940,7 +25940,7 @@
       <c r="N819" s="40"/>
       <c r="O819" s="20"/>
     </row>
-    <row r="820" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A820" s="17"/>
       <c r="B820" s="17"/>
       <c r="C820" s="19"/>
@@ -25957,7 +25957,7 @@
       <c r="N820" s="40"/>
       <c r="O820" s="20"/>
     </row>
-    <row r="821" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A821" s="17"/>
       <c r="B821" s="17"/>
       <c r="C821" s="19"/>
@@ -25974,7 +25974,7 @@
       <c r="N821" s="40"/>
       <c r="O821" s="20"/>
     </row>
-    <row r="822" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A822" s="17"/>
       <c r="B822" s="17"/>
       <c r="C822" s="19"/>
@@ -25991,7 +25991,7 @@
       <c r="N822" s="41"/>
       <c r="O822" s="21"/>
     </row>
-    <row r="823" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A823" s="17"/>
       <c r="B823" s="17"/>
       <c r="C823" s="19"/>
@@ -26008,7 +26008,7 @@
       <c r="N823" s="40"/>
       <c r="O823" s="20"/>
     </row>
-    <row r="824" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A824" s="17"/>
       <c r="B824" s="17"/>
       <c r="C824" s="19"/>
@@ -26025,7 +26025,7 @@
       <c r="N824" s="40"/>
       <c r="O824" s="20"/>
     </row>
-    <row r="825" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A825" s="17"/>
       <c r="B825" s="17"/>
       <c r="C825" s="19"/>
@@ -26042,7 +26042,7 @@
       <c r="N825" s="40"/>
       <c r="O825" s="20"/>
     </row>
-    <row r="826" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A826" s="17"/>
       <c r="B826" s="17"/>
       <c r="C826" s="19"/>
@@ -26059,7 +26059,7 @@
       <c r="N826" s="40"/>
       <c r="O826" s="20"/>
     </row>
-    <row r="827" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A827" s="17"/>
       <c r="B827" s="17"/>
       <c r="C827" s="19"/>
@@ -26076,7 +26076,7 @@
       <c r="N827" s="40"/>
       <c r="O827" s="20"/>
     </row>
-    <row r="828" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A828" s="17"/>
       <c r="B828" s="17"/>
       <c r="C828" s="19"/>
@@ -26093,7 +26093,7 @@
       <c r="N828" s="41"/>
       <c r="O828" s="21"/>
     </row>
-    <row r="829" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A829" s="17"/>
       <c r="B829" s="17"/>
       <c r="C829" s="19"/>
@@ -26110,7 +26110,7 @@
       <c r="N829" s="40"/>
       <c r="O829" s="20"/>
     </row>
-    <row r="830" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A830" s="17"/>
       <c r="B830" s="17"/>
       <c r="C830" s="19"/>
@@ -26127,7 +26127,7 @@
       <c r="N830" s="40"/>
       <c r="O830" s="20"/>
     </row>
-    <row r="831" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A831" s="17"/>
       <c r="B831" s="17"/>
       <c r="C831" s="19"/>
@@ -26144,7 +26144,7 @@
       <c r="N831" s="41"/>
       <c r="O831" s="21"/>
     </row>
-    <row r="832" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A832" s="17"/>
       <c r="B832" s="17"/>
       <c r="C832" s="19"/>
@@ -26161,7 +26161,7 @@
       <c r="N832" s="40"/>
       <c r="O832" s="20"/>
     </row>
-    <row r="833" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A833" s="17"/>
       <c r="B833" s="17"/>
       <c r="C833" s="19"/>
@@ -26178,7 +26178,7 @@
       <c r="N833" s="40"/>
       <c r="O833" s="20"/>
     </row>
-    <row r="834" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A834" s="17"/>
       <c r="B834" s="17"/>
       <c r="C834" s="19"/>
@@ -26195,7 +26195,7 @@
       <c r="N834" s="40"/>
       <c r="O834" s="20"/>
     </row>
-    <row r="835" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A835" s="17"/>
       <c r="B835" s="17"/>
       <c r="C835" s="19"/>
@@ -26212,7 +26212,7 @@
       <c r="N835" s="40"/>
       <c r="O835" s="20"/>
     </row>
-    <row r="836" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A836" s="17"/>
       <c r="B836" s="17"/>
       <c r="C836" s="19"/>
@@ -26229,7 +26229,7 @@
       <c r="N836" s="40"/>
       <c r="O836" s="20"/>
     </row>
-    <row r="837" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A837" s="17"/>
       <c r="B837" s="17"/>
       <c r="C837" s="19"/>
@@ -26246,7 +26246,7 @@
       <c r="N837" s="41"/>
       <c r="O837" s="21"/>
     </row>
-    <row r="838" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A838" s="17"/>
       <c r="B838" s="17"/>
       <c r="C838" s="19"/>
@@ -26263,7 +26263,7 @@
       <c r="N838" s="40"/>
       <c r="O838" s="20"/>
     </row>
-    <row r="839" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A839" s="17"/>
       <c r="B839" s="17"/>
       <c r="C839" s="19"/>
@@ -26280,7 +26280,7 @@
       <c r="N839" s="40"/>
       <c r="O839" s="20"/>
     </row>
-    <row r="840" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A840" s="17"/>
       <c r="B840" s="17"/>
       <c r="C840" s="19"/>
@@ -26297,7 +26297,7 @@
       <c r="N840" s="40"/>
       <c r="O840" s="20"/>
     </row>
-    <row r="841" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A841" s="17"/>
       <c r="B841" s="17"/>
       <c r="C841" s="19"/>
@@ -26314,7 +26314,7 @@
       <c r="N841" s="40"/>
       <c r="O841" s="20"/>
     </row>
-    <row r="842" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A842" s="17"/>
       <c r="B842" s="17"/>
       <c r="C842" s="19"/>
@@ -26331,7 +26331,7 @@
       <c r="N842" s="41"/>
       <c r="O842" s="21"/>
     </row>
-    <row r="843" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A843" s="17"/>
       <c r="B843" s="17"/>
       <c r="C843" s="19"/>
@@ -26348,7 +26348,7 @@
       <c r="N843" s="40"/>
       <c r="O843" s="20"/>
     </row>
-    <row r="844" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A844" s="17"/>
       <c r="B844" s="17"/>
       <c r="C844" s="19"/>
@@ -26365,7 +26365,7 @@
       <c r="N844" s="40"/>
       <c r="O844" s="20"/>
     </row>
-    <row r="845" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A845" s="17"/>
       <c r="B845" s="17"/>
       <c r="C845" s="19"/>
@@ -26382,7 +26382,7 @@
       <c r="N845" s="40"/>
       <c r="O845" s="20"/>
     </row>
-    <row r="846" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A846" s="17"/>
       <c r="B846" s="17"/>
       <c r="C846" s="19"/>
@@ -26399,7 +26399,7 @@
       <c r="N846" s="40"/>
       <c r="O846" s="20"/>
     </row>
-    <row r="847" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A847" s="17"/>
       <c r="B847" s="17"/>
       <c r="C847" s="19"/>
@@ -26416,7 +26416,7 @@
       <c r="N847" s="41"/>
       <c r="O847" s="21"/>
     </row>
-    <row r="848" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A848" s="17"/>
       <c r="B848" s="17"/>
       <c r="C848" s="19"/>
@@ -26433,7 +26433,7 @@
       <c r="N848" s="41"/>
       <c r="O848" s="21"/>
     </row>
-    <row r="849" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A849" s="17"/>
       <c r="B849" s="17"/>
       <c r="C849" s="19"/>
@@ -26450,7 +26450,7 @@
       <c r="N849" s="40"/>
       <c r="O849" s="20"/>
     </row>
-    <row r="850" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A850" s="17"/>
       <c r="B850" s="17"/>
       <c r="C850" s="19"/>
@@ -26467,7 +26467,7 @@
       <c r="N850" s="40"/>
       <c r="O850" s="20"/>
     </row>
-    <row r="851" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A851" s="17"/>
       <c r="B851" s="17"/>
       <c r="C851" s="19"/>
@@ -26484,7 +26484,7 @@
       <c r="N851" s="40"/>
       <c r="O851" s="20"/>
     </row>
-    <row r="852" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A852" s="17"/>
       <c r="B852" s="17"/>
       <c r="C852" s="19"/>
@@ -26501,7 +26501,7 @@
       <c r="N852" s="40"/>
       <c r="O852" s="20"/>
     </row>
-    <row r="853" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A853" s="17"/>
       <c r="B853" s="17"/>
       <c r="C853" s="19"/>
@@ -26518,7 +26518,7 @@
       <c r="N853" s="41"/>
       <c r="O853" s="21"/>
     </row>
-    <row r="854" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A854" s="17"/>
       <c r="B854" s="17"/>
       <c r="C854" s="19"/>
@@ -26535,7 +26535,7 @@
       <c r="N854" s="40"/>
       <c r="O854" s="20"/>
     </row>
-    <row r="855" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A855" s="17"/>
       <c r="B855" s="17"/>
       <c r="C855" s="19"/>
@@ -26552,7 +26552,7 @@
       <c r="N855" s="40"/>
       <c r="O855" s="20"/>
     </row>
-    <row r="856" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A856" s="17"/>
       <c r="B856" s="17"/>
       <c r="C856" s="19"/>
@@ -26569,7 +26569,7 @@
       <c r="N856" s="40"/>
       <c r="O856" s="20"/>
     </row>
-    <row r="857" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A857" s="17"/>
       <c r="B857" s="17"/>
       <c r="C857" s="19"/>
@@ -26586,7 +26586,7 @@
       <c r="N857" s="41"/>
       <c r="O857" s="21"/>
     </row>
-    <row r="858" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A858" s="17"/>
       <c r="B858" s="17"/>
       <c r="C858" s="19"/>
@@ -26603,7 +26603,7 @@
       <c r="N858" s="40"/>
       <c r="O858" s="20"/>
     </row>
-    <row r="859" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A859" s="17"/>
       <c r="B859" s="17"/>
       <c r="C859" s="19"/>
@@ -26620,7 +26620,7 @@
       <c r="N859" s="40"/>
       <c r="O859" s="20"/>
     </row>
-    <row r="860" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A860" s="17"/>
       <c r="B860" s="17"/>
       <c r="C860" s="19"/>
@@ -26637,7 +26637,7 @@
       <c r="N860" s="40"/>
       <c r="O860" s="20"/>
     </row>
-    <row r="861" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A861" s="17"/>
       <c r="B861" s="17"/>
       <c r="C861" s="19"/>
@@ -26654,7 +26654,7 @@
       <c r="N861" s="40"/>
       <c r="O861" s="20"/>
     </row>
-    <row r="862" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A862" s="17"/>
       <c r="B862" s="17"/>
       <c r="C862" s="19"/>
@@ -26671,7 +26671,7 @@
       <c r="N862" s="40"/>
       <c r="O862" s="20"/>
     </row>
-    <row r="863" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A863" s="17"/>
       <c r="B863" s="17"/>
       <c r="C863" s="19"/>
@@ -26688,7 +26688,7 @@
       <c r="N863" s="40"/>
       <c r="O863" s="20"/>
     </row>
-    <row r="864" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A864" s="17"/>
       <c r="B864" s="17"/>
       <c r="C864" s="19"/>
@@ -26705,7 +26705,7 @@
       <c r="N864" s="40"/>
       <c r="O864" s="20"/>
     </row>
-    <row r="865" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A865" s="17"/>
       <c r="B865" s="17"/>
       <c r="C865" s="19"/>
@@ -26722,7 +26722,7 @@
       <c r="N865" s="40"/>
       <c r="O865" s="20"/>
     </row>
-    <row r="866" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A866" s="17"/>
       <c r="B866" s="17"/>
       <c r="C866" s="19"/>
@@ -26739,7 +26739,7 @@
       <c r="N866" s="40"/>
       <c r="O866" s="20"/>
     </row>
-    <row r="867" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A867" s="17"/>
       <c r="B867" s="17"/>
       <c r="C867" s="19"/>
@@ -26756,7 +26756,7 @@
       <c r="N867" s="40"/>
       <c r="O867" s="20"/>
     </row>
-    <row r="868" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A868" s="17"/>
       <c r="B868" s="17"/>
       <c r="C868" s="19"/>
@@ -26773,7 +26773,7 @@
       <c r="N868" s="40"/>
       <c r="O868" s="20"/>
     </row>
-    <row r="869" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A869" s="17"/>
       <c r="B869" s="17"/>
       <c r="C869" s="19"/>
@@ -26790,7 +26790,7 @@
       <c r="N869" s="40"/>
       <c r="O869" s="20"/>
     </row>
-    <row r="870" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A870" s="17"/>
       <c r="B870" s="17"/>
       <c r="C870" s="19"/>
@@ -26807,7 +26807,7 @@
       <c r="N870" s="40"/>
       <c r="O870" s="20"/>
     </row>
-    <row r="871" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A871" s="17"/>
       <c r="B871" s="17"/>
       <c r="C871" s="19"/>
@@ -26824,7 +26824,7 @@
       <c r="N871" s="40"/>
       <c r="O871" s="20"/>
     </row>
-    <row r="872" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A872" s="17"/>
       <c r="B872" s="17"/>
       <c r="C872" s="19"/>
@@ -26841,7 +26841,7 @@
       <c r="N872" s="40"/>
       <c r="O872" s="20"/>
     </row>
-    <row r="873" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A873" s="17"/>
       <c r="B873" s="17"/>
       <c r="C873" s="19"/>
@@ -26858,7 +26858,7 @@
       <c r="N873" s="40"/>
       <c r="O873" s="20"/>
     </row>
-    <row r="874" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A874" s="17"/>
       <c r="B874" s="17"/>
       <c r="C874" s="19"/>
@@ -26875,7 +26875,7 @@
       <c r="N874" s="40"/>
       <c r="O874" s="20"/>
     </row>
-    <row r="875" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A875" s="17"/>
       <c r="B875" s="17"/>
       <c r="C875" s="19"/>
@@ -26892,7 +26892,7 @@
       <c r="N875" s="40"/>
       <c r="O875" s="20"/>
     </row>
-    <row r="876" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A876" s="17"/>
       <c r="B876" s="17"/>
       <c r="C876" s="19"/>
@@ -26909,7 +26909,7 @@
       <c r="N876" s="40"/>
       <c r="O876" s="20"/>
     </row>
-    <row r="877" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A877" s="17"/>
       <c r="B877" s="17"/>
       <c r="C877" s="19"/>
@@ -26926,7 +26926,7 @@
       <c r="N877" s="40"/>
       <c r="O877" s="20"/>
     </row>
-    <row r="878" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A878" s="17"/>
       <c r="B878" s="17"/>
       <c r="C878" s="19"/>
@@ -26943,7 +26943,7 @@
       <c r="N878" s="40"/>
       <c r="O878" s="20"/>
     </row>
-    <row r="879" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A879" s="17"/>
       <c r="B879" s="17"/>
       <c r="C879" s="19"/>
@@ -26960,7 +26960,7 @@
       <c r="N879" s="40"/>
       <c r="O879" s="20"/>
     </row>
-    <row r="880" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A880" s="17"/>
       <c r="B880" s="17"/>
       <c r="C880" s="19"/>
@@ -26977,7 +26977,7 @@
       <c r="N880" s="40"/>
       <c r="O880" s="20"/>
     </row>
-    <row r="881" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A881" s="17"/>
       <c r="B881" s="17"/>
       <c r="C881" s="19"/>
@@ -26994,7 +26994,7 @@
       <c r="N881" s="40"/>
       <c r="O881" s="20"/>
     </row>
-    <row r="882" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A882" s="17"/>
       <c r="B882" s="17"/>
       <c r="C882" s="19"/>
@@ -27011,7 +27011,7 @@
       <c r="N882" s="40"/>
       <c r="O882" s="20"/>
     </row>
-    <row r="883" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A883" s="17"/>
       <c r="B883" s="17"/>
       <c r="C883" s="19"/>
@@ -27028,7 +27028,7 @@
       <c r="N883" s="40"/>
       <c r="O883" s="20"/>
     </row>
-    <row r="884" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A884" s="17"/>
       <c r="B884" s="17"/>
       <c r="C884" s="19"/>
@@ -27045,7 +27045,7 @@
       <c r="N884" s="40"/>
       <c r="O884" s="20"/>
     </row>
-    <row r="885" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A885" s="17"/>
       <c r="B885" s="17"/>
       <c r="C885" s="19"/>
@@ -27062,7 +27062,7 @@
       <c r="N885" s="40"/>
       <c r="O885" s="20"/>
     </row>
-    <row r="886" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A886" s="17"/>
       <c r="B886" s="17"/>
       <c r="C886" s="19"/>
@@ -27079,7 +27079,7 @@
       <c r="N886" s="40"/>
       <c r="O886" s="20"/>
     </row>
-    <row r="887" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A887" s="17"/>
       <c r="B887" s="17"/>
       <c r="C887" s="19"/>
@@ -27096,7 +27096,7 @@
       <c r="N887" s="40"/>
       <c r="O887" s="20"/>
     </row>
-    <row r="888" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A888" s="17"/>
       <c r="B888" s="17"/>
       <c r="C888" s="19"/>
@@ -27113,7 +27113,7 @@
       <c r="N888" s="40"/>
       <c r="O888" s="20"/>
     </row>
-    <row r="889" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A889" s="17"/>
       <c r="B889" s="17"/>
       <c r="C889" s="19"/>
@@ -27130,7 +27130,7 @@
       <c r="N889" s="40"/>
       <c r="O889" s="20"/>
     </row>
-    <row r="890" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A890" s="17"/>
       <c r="B890" s="17"/>
       <c r="C890" s="19"/>
@@ -27147,7 +27147,7 @@
       <c r="N890" s="40"/>
       <c r="O890" s="20"/>
     </row>
-    <row r="891" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A891" s="17"/>
       <c r="B891" s="17"/>
       <c r="C891" s="19"/>
@@ -27164,7 +27164,7 @@
       <c r="N891" s="40"/>
       <c r="O891" s="20"/>
     </row>
-    <row r="892" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A892" s="17"/>
       <c r="B892" s="17"/>
       <c r="C892" s="19"/>
@@ -27181,7 +27181,7 @@
       <c r="N892" s="40"/>
       <c r="O892" s="20"/>
     </row>
-    <row r="893" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A893" s="17"/>
       <c r="B893" s="17"/>
       <c r="C893" s="19"/>
@@ -27198,7 +27198,7 @@
       <c r="N893" s="40"/>
       <c r="O893" s="20"/>
     </row>
-    <row r="894" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A894" s="17"/>
       <c r="B894" s="17"/>
       <c r="C894" s="19"/>
@@ -27215,7 +27215,7 @@
       <c r="N894" s="40"/>
       <c r="O894" s="20"/>
     </row>
-    <row r="895" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A895" s="17"/>
       <c r="B895" s="17"/>
       <c r="C895" s="19"/>
@@ -27232,7 +27232,7 @@
       <c r="N895" s="40"/>
       <c r="O895" s="20"/>
     </row>
-    <row r="896" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A896" s="17"/>
       <c r="B896" s="17"/>
       <c r="C896" s="19"/>
@@ -27249,7 +27249,7 @@
       <c r="N896" s="40"/>
       <c r="O896" s="20"/>
     </row>
-    <row r="897" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A897" s="17"/>
       <c r="B897" s="17"/>
       <c r="C897" s="19"/>
@@ -27266,7 +27266,7 @@
       <c r="N897" s="40"/>
       <c r="O897" s="20"/>
     </row>
-    <row r="898" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A898" s="17"/>
       <c r="B898" s="17"/>
       <c r="C898" s="19"/>
@@ -27283,7 +27283,7 @@
       <c r="N898" s="40"/>
       <c r="O898" s="20"/>
     </row>
-    <row r="899" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A899" s="17"/>
       <c r="B899" s="17"/>
       <c r="C899" s="19"/>
@@ -27300,7 +27300,7 @@
       <c r="N899" s="40"/>
       <c r="O899" s="20"/>
     </row>
-    <row r="900" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A900" s="17"/>
       <c r="B900" s="17"/>
       <c r="C900" s="19"/>
@@ -27317,7 +27317,7 @@
       <c r="N900" s="40"/>
       <c r="O900" s="20"/>
     </row>
-    <row r="901" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A901" s="17"/>
       <c r="B901" s="17"/>
       <c r="C901" s="19"/>
@@ -27334,7 +27334,7 @@
       <c r="N901" s="40"/>
       <c r="O901" s="20"/>
     </row>
-    <row r="902" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A902" s="17"/>
       <c r="B902" s="17"/>
       <c r="C902" s="19"/>
@@ -27351,7 +27351,7 @@
       <c r="N902" s="40"/>
       <c r="O902" s="20"/>
     </row>
-    <row r="903" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A903" s="17"/>
       <c r="B903" s="17"/>
       <c r="C903" s="19"/>
@@ -27368,7 +27368,7 @@
       <c r="N903" s="40"/>
       <c r="O903" s="20"/>
     </row>
-    <row r="904" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A904" s="17"/>
       <c r="B904" s="17"/>
       <c r="C904" s="19"/>
@@ -27385,7 +27385,7 @@
       <c r="N904" s="40"/>
       <c r="O904" s="20"/>
     </row>
-    <row r="905" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A905" s="17"/>
       <c r="B905" s="17"/>
       <c r="C905" s="19"/>
@@ -27402,7 +27402,7 @@
       <c r="N905" s="40"/>
       <c r="O905" s="20"/>
     </row>
-    <row r="906" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A906" s="17"/>
       <c r="B906" s="17"/>
       <c r="C906" s="19"/>
@@ -27419,7 +27419,7 @@
       <c r="N906" s="41"/>
       <c r="O906" s="21"/>
     </row>
-    <row r="907" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A907" s="17"/>
       <c r="B907" s="17"/>
       <c r="C907" s="19"/>
@@ -27436,7 +27436,7 @@
       <c r="N907" s="40"/>
       <c r="O907" s="20"/>
     </row>
-    <row r="908" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A908" s="17"/>
       <c r="B908" s="17"/>
       <c r="C908" s="19"/>
@@ -27453,7 +27453,7 @@
       <c r="N908" s="40"/>
       <c r="O908" s="20"/>
     </row>
-    <row r="909" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A909" s="17"/>
       <c r="B909" s="17"/>
       <c r="C909" s="19"/>
@@ -27470,7 +27470,7 @@
       <c r="N909" s="40"/>
       <c r="O909" s="20"/>
     </row>
-    <row r="910" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A910" s="17"/>
       <c r="B910" s="17"/>
       <c r="C910" s="19"/>
@@ -27487,7 +27487,7 @@
       <c r="N910" s="40"/>
       <c r="O910" s="20"/>
     </row>
-    <row r="911" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A911" s="17"/>
       <c r="B911" s="17"/>
       <c r="C911" s="19"/>
@@ -27504,7 +27504,7 @@
       <c r="N911" s="40"/>
       <c r="O911" s="20"/>
     </row>
-    <row r="912" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A912" s="17"/>
       <c r="B912" s="17"/>
       <c r="C912" s="19"/>
@@ -27521,7 +27521,7 @@
       <c r="N912" s="40"/>
       <c r="O912" s="20"/>
     </row>
-    <row r="913" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A913" s="17"/>
       <c r="B913" s="17"/>
       <c r="C913" s="19"/>
@@ -27538,7 +27538,7 @@
       <c r="N913" s="40"/>
       <c r="O913" s="20"/>
     </row>
-    <row r="914" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A914" s="17"/>
       <c r="B914" s="17"/>
       <c r="C914" s="19"/>
@@ -27555,7 +27555,7 @@
       <c r="N914" s="40"/>
       <c r="O914" s="20"/>
     </row>
-    <row r="915" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A915" s="17"/>
       <c r="B915" s="17"/>
       <c r="C915" s="19"/>
@@ -27572,7 +27572,7 @@
       <c r="N915" s="40"/>
       <c r="O915" s="20"/>
     </row>
-    <row r="916" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A916" s="17"/>
       <c r="B916" s="17"/>
       <c r="C916" s="19"/>
@@ -27589,7 +27589,7 @@
       <c r="N916" s="40"/>
       <c r="O916" s="20"/>
     </row>
-    <row r="917" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A917" s="17"/>
       <c r="B917" s="17"/>
       <c r="C917" s="19"/>
@@ -27606,7 +27606,7 @@
       <c r="N917" s="40"/>
       <c r="O917" s="20"/>
     </row>
-    <row r="918" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A918" s="17"/>
       <c r="B918" s="17"/>
       <c r="C918" s="19"/>
@@ -27623,7 +27623,7 @@
       <c r="N918" s="40"/>
       <c r="O918" s="20"/>
     </row>
-    <row r="919" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A919" s="17"/>
       <c r="B919" s="17"/>
       <c r="C919" s="19"/>
@@ -27642,11 +27642,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="N232:O232"/>
-    <mergeCell ref="P232:Q232"/>
-    <mergeCell ref="R232:S232"/>
-    <mergeCell ref="T232:U232"/>
-    <mergeCell ref="R10:S10"/>
     <mergeCell ref="H10:M10"/>
     <mergeCell ref="T10:U10"/>
     <mergeCell ref="A10:A11"/>
@@ -27654,6 +27649,11 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N232:O232"/>
+    <mergeCell ref="P232:Q232"/>
+    <mergeCell ref="R232:S232"/>
+    <mergeCell ref="T232:U232"/>
+    <mergeCell ref="R10:S10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
